--- a/Standard Minority Game/standard-deviation-vs-memory-size.xlsx
+++ b/Standard Minority Game/standard-deviation-vs-memory-size.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="-420" windowWidth="24320" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="225" yWindow="-420" windowWidth="21720" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sigma" sheetId="2" r:id="rId1"/>
@@ -65,11 +65,20 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:lang val="en-GB"/>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -93,1444 +102,1444 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,49 +1551,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>13.5277492584686</c:v>
+                  <c:v>13.527749258468599</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.1909059582729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.3790881602596</c:v>
+                  <c:v>13.379088160259601</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13.1529464379659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.2287565553229</c:v>
+                  <c:v>13.228756555322899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.4536240470737</c:v>
+                  <c:v>13.453624047073699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.2287565553229</c:v>
+                  <c:v>13.228756555322899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.2287565553229</c:v>
+                  <c:v>13.228756555322899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.30413469565</c:v>
+                  <c:v>13.304134695649999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.2287565553229</c:v>
+                  <c:v>13.228756555322899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.5277492584686</c:v>
+                  <c:v>13.527749258468599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.0384048104052</c:v>
+                  <c:v>13.038404810405201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.490737563232</c:v>
+                  <c:v>13.490737563232001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.2664991614216</c:v>
+                  <c:v>13.266499161421599</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.3790881602596</c:v>
+                  <c:v>13.379088160259601</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>13.6014705087354</c:v>
@@ -1593,16 +1602,16 @@
                   <c:v>13.856406460551</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.5277492584686</c:v>
+                  <c:v>13.527749258468599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.2287565553229</c:v>
+                  <c:v>13.228756555322899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.30413469565</c:v>
+                  <c:v>13.304134695649999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.5646599662505</c:v>
+                  <c:v>13.564659966250501</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>13.1529464379659</c:v>
@@ -1611,31 +1620,31 @@
                   <c:v>13.3416640641263</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.9614813968157</c:v>
+                  <c:v>12.961481396815699</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.3790881602596</c:v>
+                  <c:v>13.379088160259601</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.0384048104052</c:v>
+                  <c:v>13.038404810405201</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>13.1529464379659</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.4536240470737</c:v>
+                  <c:v>13.453624047073699</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.2664991614216</c:v>
+                  <c:v>13.266499161421599</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>13.7840487520902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.30413469565</c:v>
+                  <c:v>13.304134695649999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.114877048604</c:v>
+                  <c:v>13.114877048604001</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>12.1243556529821</c:v>
@@ -1647,16 +1656,16 @@
                   <c:v>11.8321595661992</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.9582607431013</c:v>
+                  <c:v>11.958260743101301</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.7046999107196</c:v>
+                  <c:v>11.704699910719601</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>11.6619037896906</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.3288280059379</c:v>
+                  <c:v>12.328828005937901</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>12.5299640861416</c:v>
@@ -1665,7 +1674,7 @@
                   <c:v>11.6619037896906</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.5758369027902</c:v>
+                  <c:v>11.575836902790201</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>12.5698050899765</c:v>
@@ -1680,19 +1689,19 @@
                   <c:v>11.7473401244707</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.3578166916005</c:v>
+                  <c:v>11.357816691600499</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.5325625946707</c:v>
+                  <c:v>11.532562594670701</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>11.4455231422595</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.9163752878129</c:v>
+                  <c:v>11.916375287812899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11.9163752878129</c:v>
+                  <c:v>11.916375287812899</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>11.6619037896906</c:v>
@@ -1701,16 +1710,16 @@
                   <c:v>11.6619037896906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12.3693168768529</c:v>
+                  <c:v>12.369316876852899</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>12.0415945787922</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.8743420870379</c:v>
+                  <c:v>11.874342087037901</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.3693168768529</c:v>
+                  <c:v>12.369316876852899</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>12.1243556529821</c:v>
@@ -1719,10 +1728,10 @@
                   <c:v>12.0415945787922</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>11.5325625946707</c:v>
+                  <c:v>11.532562594670701</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>11.7898261225515</c:v>
+                  <c:v>11.789826122551499</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>11.6619037896906</c:v>
@@ -1731,1288 +1740,1354 @@
                   <c:v>11.13552872566</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12.4899959967967</c:v>
+                  <c:v>12.489995996796701</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>9.1651513899116797</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791442992</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>9.0553851381374102</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791442992</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>8.8881944173155798</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>9.0553851381374102</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>8.9442719099991592</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.32737905308881</c:v>
+                  <c:v>9.3273790530888103</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>9.1651513899116797</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>8.8881944173155798</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>9.0553851381374102</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>7.1414284285428504</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.28010988928051</c:v>
+                  <c:v>7.2801098892805101</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>7.5498344352707498</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.28010988928051</c:v>
+                  <c:v>7.2801098892805101</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>7.0710678118654702</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6.48074069840786</c:v>
+                  <c:v>6.4807406984078604</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6.08276253029821</c:v>
+                  <c:v>6.0827625302982096</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6.32455532033675</c:v>
+                  <c:v>6.3245553203367502</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6.16441400296897</c:v>
+                  <c:v>6.1644140029689698</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.32455532033675</c:v>
+                  <c:v>6.3245553203367502</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.08276253029821</c:v>
+                  <c:v>6.0827625302982096</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.08276253029821</c:v>
+                  <c:v>6.0827625302982096</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.16441400296897</c:v>
+                  <c:v>6.1644140029689698</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>6.16441400296897</c:v>
+                  <c:v>6.1644140029689698</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6.32455532033675</c:v>
+                  <c:v>6.3245553203367502</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6.32455532033675</c:v>
+                  <c:v>6.3245553203367502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>5.91607978309961</c:v>
+                  <c:v>5.9160797830996108</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6.08276253029821</c:v>
+                  <c:v>6.0827625302982096</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6.40312423743284</c:v>
+                  <c:v>6.4031242374328396</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>5.8309518948453</c:v>
+                  <c:v>5.8309518948452999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>6.08276253029821</c:v>
+                  <c:v>6.0827625302982096</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6.24499799839839</c:v>
+                  <c:v>6.2449979983983903</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>6.24499799839839</c:v>
+                  <c:v>6.2449979983983903</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>6.16441400296897</c:v>
+                  <c:v>6.1644140029689698</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>6.16441400296897</c:v>
+                  <c:v>6.1644140029689698</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>6.557438524302</c:v>
+                  <c:v>6.5574385243020004</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>6.32455532033675</c:v>
+                  <c:v>6.3245553203367502</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>6.08276253029821</c:v>
+                  <c:v>6.0827625302982096</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>6.32455532033675</c:v>
+                  <c:v>6.3245553203367502</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>6.16441400296897</c:v>
+                  <c:v>6.1644140029689698</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>7.1414284285428504</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>7.0710678118654702</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>7.28010988928051</c:v>
+                  <c:v>7.2801098892805101</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>7.5498344352707498</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>7.1414284285428504</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>7.5498344352707498</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>6.9282032302755</c:v>
+                  <c:v>6.9282032302754999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>7.1414284285428504</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>7.1414284285428504</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>7.0710678118654702</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>7.1414284285428504</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>7.0710678118654702</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>7.5498344352707498</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>7.0710678118654702</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>8.8881944173155798</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>9.1651513899116797</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>9.48683298050513</c:v>
+                  <c:v>9.4868329805051292</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>9.53939201416945</c:v>
+                  <c:v>9.5393920141694508</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>9.32737905308881</c:v>
+                  <c:v>9.3273790530888103</c:v>
                 </c:pt>
                 <c:pt idx="197">
                   <c:v>9.21954445729288</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>9.32737905308881</c:v>
+                  <c:v>9.3273790530888103</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791443027</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>9.21954445729288</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>9.1651513899116797</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791443027</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791443027</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>9.2736184954957</c:v>
+                  <c:v>9.2736184954957004</c:v>
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>9.21954445729288</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>9.0553851381374102</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791443027</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>9.38083151964686</c:v>
+                  <c:v>9.3808315196468612</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791443027</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>9.0553851381374102</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>8.944271909999156</c:v>
+                  <c:v>8.9442719099991557</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>9.591663046625428</c:v>
+                  <c:v>9.5916630466254276</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>9.1651513899116797</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>9.1651513899116797</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>9.32737905308881</c:v>
+                  <c:v>9.3273790530888103</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>9.38083151964686</c:v>
+                  <c:v>9.3808315196468612</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791443027</c:v>
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>9.21954445729288</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>8.944271909999156</c:v>
+                  <c:v>8.9442719099991557</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>8.8881944173155798</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791443027</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>7.6811457478685998</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>7.6811457478685998</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>7.3484692283495301</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>7.8740078740118102</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>7.5498344352707498</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>7.6157731058639</c:v>
+                  <c:v>7.6157731058638998</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>7.28010988928051</c:v>
+                  <c:v>7.2801098892805101</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>7.2111025509279703</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>7.5498344352707498</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>7.6811457478685998</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>7.8740078740118102</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>7.8740078740118102</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>7.7459666924148296</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>7.6811457478685998</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>7.4161984870956603</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>7.6157731058639</c:v>
+                  <c:v>7.6157731058638998</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>7.7459666924148296</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>7.6811457478685998</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>7.9372539331937704</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>7.6811457478685998</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>7.5498344352707498</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>7.6811457478685998</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>7.9372539331937704</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>7.8102496759066504</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>7.8102496759066504</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>8.1240384046359608</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>7.7459666924148296</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>8.7749643873921208</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>7.6811457478685998</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>7.8102496759066504</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>7.7459666924148296</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>8.7749643873921208</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>7.9372539331937704</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>8.1240384046359608</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>8.1240384046359608</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>7.8102496759066504</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>7.9372539331937704</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791442992</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>8.7749643873921208</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>8.7749643873921208</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>8.9442719099991592</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>8.7749643873921208</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>7.7459666924148296</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>7.9372539331937704</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>7.6157731058639</c:v>
+                  <c:v>7.6157731058638998</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>7.9372539331937704</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>7.5498344352707498</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>7.8102496759066504</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>8.7749643873921208</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>7.8102496759066504</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>8.1240384046359608</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>7.9372539331937704</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>7.8102496759066504</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>9.1104335791442992</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>8.7749643873921208</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>8.8881944173155798</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>7.8740078740118102</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>8.7749643873921208</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>8.9442719099991592</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>8.9442719099991592</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>9.1651513899116797</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>9.0553851381374102</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>8.9442719099991592</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>8.9442719099991592</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>9.1651513899116797</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>8.9442719099991592</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>7.9372539331937704</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="432">
                   <c:v>9.21954445729288</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>8.3066238629180695</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>9.1651513899116797</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>8.8317608663278406</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>8.9442719099991592</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>8.8881944173155798</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>8.5440037453175304</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>9.2736184954957</c:v>
+                  <c:v>9.2736184954957004</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="458">
                   <c:v>9.21954445729288</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>8.2462112512353194</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>8.0622577482985491</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>8.7177978870813408</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>8.4852813742385695</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>7.8102496759066504</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>7.7459666924148296</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>8.3666002653407503</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>8.4261497731763502</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>8.6023252670426196</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>8.6602540378443802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="473545672"/>
-        <c:axId val="473548776"/>
+        <c:axId val="89765376"/>
+        <c:axId val="149781120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="473545672"/>
+        <c:axId val="89765376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Memory</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size, m</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473548776"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149781120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473548776"/>
+        <c:axId val="149781120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15.0"/>
+          <c:max val="15"/>
         </c:scaling>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Standard</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Deviation in Attendance of Choice A</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="473545672"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89765376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.0"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3024,7 +3099,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3377,14 +3452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B480"/>
   <sheetViews>
     <sheetView topLeftCell="A452" workbookViewId="0">
       <selection activeCell="A481" sqref="A481:XFD481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">

--- a/Standard Minority Game/standard-deviation-vs-memory-size.xlsx
+++ b/Standard Minority Game/standard-deviation-vs-memory-size.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="-420" windowWidth="21720" windowHeight="13620" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sigma" sheetId="2" r:id="rId1"/>
-    <sheet name="attendance-vs-time-sigma-for-m=" sheetId="1" r:id="rId2"/>
+    <sheet name="sigma vs. m graph" sheetId="2" r:id="rId1"/>
+    <sheet name="sigma vs. m data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -65,2942 +65,3083 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Standard Deviation in Attendance Against Memory Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0819267346831526"/>
+          <c:y val="0.099379306162424"/>
+          <c:w val="0.836715373547056"/>
+          <c:h val="0.78706667608055"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Standard Deviation Against Memory Size</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:ln w="3175"/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'attendance-vs-time-sigma-for-m='!$B:$B</c:f>
+              <c:f>'sigma vs. m data'!$B:$B</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'attendance-vs-time-sigma-for-m='!$A:$A</c:f>
+              <c:f>'sigma vs. m data'!$A:$A</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>13.527749258468599</c:v>
+                  <c:v>10.6770782520313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.1909059582729</c:v>
+                  <c:v>13.711309200802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.379088160259601</c:v>
+                  <c:v>15.1327459504215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.1529464379659</c:v>
+                  <c:v>14.696938456699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.228756555322899</c:v>
+                  <c:v>13.5646599662505</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.453624047073699</c:v>
+                  <c:v>14.4222051018559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.228756555322899</c:v>
+                  <c:v>13.8202749610852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.228756555322899</c:v>
+                  <c:v>14.3178210632763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.304134695649999</c:v>
+                  <c:v>15.0665191733193</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.228756555322899</c:v>
+                  <c:v>12.6095202129184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.527749258468599</c:v>
+                  <c:v>15.0332963783729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.038404810405201</c:v>
+                  <c:v>14.696938456699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.490737563232001</c:v>
+                  <c:v>12.1243556529821</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.266499161421599</c:v>
+                  <c:v>11.8743420870379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.379088160259601</c:v>
+                  <c:v>14.4222051018559</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.6014705087354</c:v>
+                  <c:v>15.7797338380595</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>11.7898261225515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.13552872566</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.711309200802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.4536240470737</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.7238052947636</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.5325625946707</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.0830459735945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.6619037896906</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.3288280059379</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.92284798332</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.3440804327886</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.9283882771841</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.8924439894498</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.8840987267251</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>13.856406460551</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.527749258468599</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.228756555322899</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.304134695649999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.564659966250501</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.1529464379659</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13.3416640641263</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.961481396815699</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.379088160259601</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.038404810405201</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.1529464379659</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.453624047073699</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13.266499161421599</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.7840487520902</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13.304134695649999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.114877048604001</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.1243556529821</c:v>
+                  <c:v>13.5277492584686</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.1655250605964</c:v>
+                  <c:v>11.8321595661992</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>12.3288280059379</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.5698050899765</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.2287565553229</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.7238052947636</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.9087121146357</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.30413469565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.4498995979887</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.591663046625429</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.3790881602596</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.8062484748656</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.4899959967967</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.3440804327886</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.5325625946707</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.7477270848675</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.4880884817015</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>11.8321595661992</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>11.958260743101301</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11.704699910719601</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.6619037896906</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.328828005937901</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.5299640861416</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.6619037896906</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.575836902790201</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="52">
+                  <c:v>11.7473401244707</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.79795897113271</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.3693168768529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.9544511501033</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.48683298050513</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.099504938362</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.1488915650922</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.4498995979887</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.099504938362</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.8743420870379</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>12.5698050899765</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.7473401244707</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12.2065556157337</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>11.7473401244707</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.357816691600499</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.532562594670701</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.4455231422595</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.916375287812899</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.916375287812899</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.6619037896906</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>11.6619037896906</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.369316876852899</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="63">
                   <c:v>12.0415945787922</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>11.874342087037901</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.369316876852899</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>12.1243556529821</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.0415945787922</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>11.532562594670701</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11.789826122551499</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11.6619037896906</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>11.13552872566</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12.489995996796701</c:v>
-                </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>10.770329614269</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.1651513899116797</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.1104335791442992</c:v>
+                  <c:v>9.05538513813741</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>9.05538513813741</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.7177978870813408</c:v>
+                  <c:v>10.5830052442583</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.0553851381374102</c:v>
+                  <c:v>10.0498756211208</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.5440037453175304</c:v>
+                  <c:v>10.8627804912002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.1104335791442992</c:v>
+                  <c:v>10.3440804327886</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.5440037453175304</c:v>
+                  <c:v>9.4339811320566</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.8881944173155798</c:v>
+                  <c:v>10.2469507659595</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>7.87400787401181</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.0553851381374102</c:v>
+                  <c:v>10.9544511501033</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.9442719099991592</c:v>
+                  <c:v>9.89949493661166</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>10.3440804327886</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>9.74679434480896</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>10.8166538263919</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>9.2736184954957</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>10.4880884817015</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>9.69535971483265</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.3273790530888103</c:v>
+                  <c:v>9.64365076099295</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.5440037453175304</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.1651513899116797</c:v>
+                  <c:v>9.79795897113271</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.5440037453175304</c:v>
+                  <c:v>8.83176086632784</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>9.4339811320566</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.8881944173155798</c:v>
+                  <c:v>8.42614977317635</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.5440037453175304</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>9.32737905308881</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9</c:v>
+                  <c:v>9.4339811320566</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.0553851381374102</c:v>
+                  <c:v>8.36660026534075</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.4161984870956603</c:v>
+                  <c:v>7.54983443527075</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.4161984870956603</c:v>
+                  <c:v>7.74596669241483</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.4161984870956603</c:v>
+                  <c:v>8.124038404635961</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>6.48074069840786</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.6157731058639</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.18535277187245</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.74596669241483</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.6811457478686</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.28010988928051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
-                <c:pt idx="100">
-                  <c:v>7.3484692283495301</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>7.2111025509279703</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>7.1414284285428504</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>7.2801098892805101</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>7.3484692283495301</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7.2111025509279703</c:v>
-                </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.3484692283495301</c:v>
+                  <c:v>7.54983443527075</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.4161984870956603</c:v>
+                  <c:v>7.48331477354788</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.3484692283495301</c:v>
+                  <c:v>7.87400787401181</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7.2111025509279703</c:v>
+                  <c:v>7.54983443527075</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>7.2111025509279703</c:v>
+                  <c:v>5.8309518948453</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7.3484692283495301</c:v>
+                  <c:v>7.07106781186547</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7.3484692283495301</c:v>
+                  <c:v>7.41619848709566</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7.3484692283495301</c:v>
+                  <c:v>7.81024967590665</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>7.5498344352707498</c:v>
+                  <c:v>7.6157731058639</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7.3484692283495301</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.2801098892805101</c:v>
+                  <c:v>7.6157731058639</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7.0710678118654702</c:v>
+                  <c:v>7.54983443527075</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7.3484692283495301</c:v>
+                  <c:v>5.91607978309961</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7.2111025509279703</c:v>
+                  <c:v>7.14142842854285</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.3484692283495301</c:v>
+                  <c:v>7.81024967590665</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7.4161984870956603</c:v>
+                  <c:v>7.54983443527075</c:v>
                 </c:pt>
                 <c:pt idx="124">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.07106781186547</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.93725393319377</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.8309518948453</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.91607978309961</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.41619848709566</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.54400374531753</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.48074069840786</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.2736184954957</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.93725393319377</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.91607978309961</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.14142842854285</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.591663046625429</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.14142842854285</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.78232998312526</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.78232998312526</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.48074069840786</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.74596669241483</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.48528137423857</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.21110255092797</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9.2736184954957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.21110255092797</c:v>
+                </c:pt>
+                <c:pt idx="151">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
-                <c:pt idx="125">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="152">
+                  <c:v>6.85565460040104</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8.246211251235319</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.28010988928051</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.54400374531753</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.41619848709566</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.71779788708134</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.32455532033675</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.4339811320566</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8.944271909999156</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.74679434480896</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10.3923048454132</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.42614977317635</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.246211251235318</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.944271909999156</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.29150262212918</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.774964387392119</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.71779788708134</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.60232526704262</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.74679434480896</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.60232526704262</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.16441400296897</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8.246211251235318</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.65685424949238</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.54400374531753</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6.48074069840786</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.42614977317635</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8.60232526704262</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.35889894354067</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.05538513813741</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.24499799839839</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.21110255092797</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9.48683298050513</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.85565460040104</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>10.099504938362</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.1104335791443</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.1104335791443</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.74456264653802</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.32455532033675</c:v>
+                </c:pt>
+                <c:pt idx="195">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
-                <c:pt idx="128">
-                  <c:v>6.4807406984078604</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>6.0827625302982096</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>6.3245553203367502</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>6.1644140029689698</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>6.3245553203367502</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>6.0827625302982096</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>6.0827625302982096</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>6.1644140029689698</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>6.1644140029689698</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>6.3245553203367502</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>6.3245553203367502</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>5.9160797830996108</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>6.0827625302982096</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>6.4031242374328396</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>5.8309518948452999</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>6.0827625302982096</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>6.2449979983983903</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>6.2449979983983903</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>6.1644140029689698</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>6.1644140029689698</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>6.5574385243020004</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>6.3245553203367502</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>6.0827625302982096</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>6.3245553203367502</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>6.1644140029689698</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>7.1414284285428504</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>7.2111025509279703</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>7.0710678118654702</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>7.2801098892805101</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>7.5498344352707498</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>7.2111025509279703</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>7.3484692283495301</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>7.1414284285428504</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>7.3484692283495301</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>7.3484692283495301</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>7.5498344352707498</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>6.9282032302754999</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>7.2111025509279703</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>7.1414284285428504</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>7.2111025509279703</c:v>
-                </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="196">
                   <c:v>7.48331477354788</c:v>
                 </c:pt>
-                <c:pt idx="179">
-                  <c:v>7.1414284285428504</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>7.48331477354788</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>7.3484692283495301</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>7.0710678118654702</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>7.1414284285428504</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>7.0710678118654702</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>7.5498344352707498</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>7.0710678118654702</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>7.2111025509279703</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>8.8881944173155798</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>9.1651513899116797</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>9.4868329805051292</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>9.5393920141694508</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>9.3273790530888103</c:v>
-                </c:pt>
                 <c:pt idx="197">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.9498743710662</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.34846922834953</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.944271909999159</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.06225774829855</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9.1104335791443</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>7.07106781186547</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9.69535971483265</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8.60232526704262</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>9.8488578017961</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10.099504938362</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8.83176086632784</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>6.6332495807108</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9.53939201416945</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6.85565460040104</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9.64365076099295</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.099504938362</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>9.69535971483265</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>6.16441400296897</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10.3923048454132</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6.557438524302</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>7.54983443527075</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>8.30662386291807</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>7.14142842854285</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>7.6811457478686</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>8.944271909999159</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>7.87400787401181</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>8.88819441731558</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>7.34846922834953</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>8.36660026534075</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>9.4339811320566</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>9.2736184954957</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>9.05538513813741</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>7.34846922834953</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>7.87400787401181</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>8.66025403784438</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7.41619848709566</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>8.66025403784438</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9.64365076099295</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>8.30662386291807</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7.07106781186547</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7.81024967590665</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>8.944271909999159</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>9.2736184954957</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>7.28010988928051</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8.54400374531753</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>10.1980390271855</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>10.5830052442583</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>8.06225774829855</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>7.93725393319377</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>7.54983443527075</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>8.18535277187245</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>10.5830052442583</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9.69535971483265</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>8.42614977317635</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>9.89949493661166</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>8.60232526704262</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>9.64365076099295</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>8.54400374531753</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>8.66025403784438</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>7.07106781186547</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>8.83176086632784</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>7.93725393319377</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>8.944271909999159</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>8.06225774829855</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>8.60232526704262</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>6.85565460040104</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>8.774964387392121</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8.36660026534075</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>9.2736184954957</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7.34846922834953</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>7.14142842854285</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>7.74596669241483</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8.36660026534075</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>9.69535971483265</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>9.64365076099295</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8.944271909999159</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7.93725393319377</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>9.591663046625429</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9.05538513813741</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>8.71779788708134</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>8.83176086632784</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>7.87400787401181</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>7.6157731058639</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>7.74596669241483</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>8.06225774829855</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>8.30662386291807</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>8.124038404635961</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>7.28010988928051</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>8.48528137423857</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>8.48528137423857</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7.81024967590665</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>8.774964387392121</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>7.21110255092797</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>8.60232526704262</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>9.69535971483265</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>9.48683298050513</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>9.48683298050513</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>7.93725393319377</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>9.05538513813741</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>9.2736184954957</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>8.06225774829855</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>9.38083151964686</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>7.87400787401181</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>8.66025403784438</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>8.88819441731558</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>9.69535971483265</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8.60232526704262</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>7.81024967590665</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>7.81024967590665</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>8.36660026534075</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>7.41619848709566</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>8.06225774829855</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>9.16515138991168</c:v>
+                </c:pt>
+                <c:pt idx="319">
                   <c:v>9.21954445729288</c:v>
                 </c:pt>
-                <c:pt idx="198">
-                  <c:v>9.3273790530888103</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>9.1104335791443027</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>9.21954445729288</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>9.1651513899116797</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>9.1104335791443027</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>9.1104335791443027</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>9.2736184954957004</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>9.21954445729288</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>9.0553851381374102</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>9.1104335791443027</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>8.7177978870813408</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>9.3808315196468612</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>9.1104335791443027</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>9.0553851381374102</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>8.9442719099991557</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>9.5916630466254276</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>9.1651513899116797</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>9.1651513899116797</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>9.3273790530888103</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>9.3808315196468612</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>9.1104335791443027</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>9.21954445729288</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>8.9442719099991557</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>8.8881944173155798</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>9.1104335791443027</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>7.6811457478685998</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>7.6811457478685998</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>7.3484692283495301</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>7.8740078740118102</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>7.5498344352707498</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>7.6157731058638998</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>7.2801098892805101</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>7.2111025509279703</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>7.5498344352707498</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>7.6811457478685998</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>7.8740078740118102</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>7.8740078740118102</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>7.7459666924148296</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>7.6811457478685998</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>8.0622577482985491</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>7.48331477354788</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>7.4161984870956603</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>7.6157731058638998</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>7.7459666924148296</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>7.6811457478685998</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>7.9372539331937704</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>7.6811457478685998</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>8.0622577482985491</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>7.5498344352707498</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>7.6811457478685998</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>7.9372539331937704</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>8.4261497731763502</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>8.4852813742385695</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>8.2462112512353194</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>8.3066238629180695</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>8.6602540378443802</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>8.4261497731763502</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>8.4261497731763502</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>8.5440037453175304</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>8.3066238629180695</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>7.8102496759066504</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>8.5440037453175304</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>8.4261497731763502</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>7.8102496759066504</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>8.5440037453175304</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>8.0622577482985491</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>8.0622577482985491</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>8.1240384046359608</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>8.3066238629180695</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>7.7459666924148296</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>8.7749643873921208</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>8.6602540378443802</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>8.3066238629180695</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>8.3066238629180695</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>8.3666002653407503</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>8.5440037453175304</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>8.4852813742385695</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>8.6023252670426196</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>7.6811457478685998</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>7.8102496759066504</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>7.7459666924148296</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>8.7749643873921208</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>8.3066238629180695</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>7.9372539331937704</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>8.6023252670426196</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>8.2462112512353194</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>8.4261497731763502</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>8.1240384046359608</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>8.6023252670426196</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>8.1240384046359608</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>8.6023252670426196</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>8.0622577482985491</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>8.5440037453175304</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>8.2462112512353194</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>8.2462112512353194</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>7.8102496759066504</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>8.8317608663278406</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>7.9372539331937704</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>8.4261497731763502</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>8.6602540378443802</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>8.5440037453175304</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>8.1853527718724504</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>8.4261497731763502</c:v>
-                </c:pt>
                 <c:pt idx="320">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>8.3066238629180695</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>8.3066238629180695</c:v>
+                  <c:v>8.944271909999159</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>8.246211251235319</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>8.7177978870813408</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>8.48528137423857</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>8.7177978870813408</c:v>
+                  <c:v>7.54983443527075</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>8.3066238629180695</c:v>
+                  <c:v>8.18535277187245</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>8.0622577482985491</c:v>
+                  <c:v>7.87400787401181</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>9.1104335791443</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>9.05538513813741</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>8.36660026534075</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>9.05538513813741</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>9.1104335791442992</c:v>
+                  <c:v>7.6811457478686</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>8.2462112512353194</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>8.7749643873921208</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>8.0622577482985491</c:v>
+                  <c:v>8.944271909999159</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>8.7749643873921208</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>7.74596669241483</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>8.9442719099991592</c:v>
+                  <c:v>8.88819441731558</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>8.7749643873921208</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>9.05538513813741</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>8.7177978870813408</c:v>
+                  <c:v>8.06225774829855</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>8.944271909999159</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>8.5440037453175304</c:v>
+                  <c:v>9.32737905308881</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>8.48528137423857</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>8.0622577482985491</c:v>
+                  <c:v>8.124038404635961</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>8.2462112512353194</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>7.87400787401181</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>8.06225774829855</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>8.48528137423857</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.246211251235319</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>8.3066238629180695</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>8.7177978870813408</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>8.0622577482985491</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>8.2462112512353194</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>7.7459666924148296</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>7.9372539331937704</c:v>
+                  <c:v>8.42614977317635</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>7.6157731058638998</c:v>
+                  <c:v>9.1104335791443</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>7.9372539331937704</c:v>
+                  <c:v>9.32737905308881</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>7.5498344352707498</c:v>
+                  <c:v>8.06225774829855</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>8</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>8.3066238629180695</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.18535277187245</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>8</c:v>
+                  <c:v>8.246211251235319</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>7.8102496759066504</c:v>
+                  <c:v>8.42614977317635</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>8.7749643873921208</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>8.5440037453175304</c:v>
+                  <c:v>8.83176086632784</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>7.8102496759066504</c:v>
+                  <c:v>8.42614977317635</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>8.1240384046359608</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>7.9372539331937704</c:v>
+                  <c:v>8.246211251235319</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>7.8102496759066504</c:v>
+                  <c:v>9.05538513813741</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>9.16515138991168</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>8.36660026534075</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.124038404635961</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>9.1104335791442992</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>8.3066238629180695</c:v>
+                  <c:v>8.83176086632784</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>8.7749643873921208</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>8.2462112512353194</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>8.8881944173155798</c:v>
+                  <c:v>8.944271909999159</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>8.246211251235319</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>7.8740078740118102</c:v>
+                  <c:v>8.88819441731558</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>8.7749643873921208</c:v>
+                  <c:v>8.48528137423857</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>8.2462112512353194</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>8.7177978870813408</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.83176086632784</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>9.16515138991168</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>8.0622577482985491</c:v>
+                  <c:v>8.18535277187245</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.88819441731558</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>8.9442719099991592</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.06225774829855</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>8.0622577482985491</c:v>
+                  <c:v>7.54983443527075</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>8.3066238629180695</c:v>
+                  <c:v>8.944271909999159</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>7.81024967590665</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>8.3066238629180695</c:v>
+                  <c:v>9.38083151964686</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>8.9442719099991592</c:v>
+                  <c:v>8.246211251235319</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.42614977317635</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>8</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>7.93725393319377</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>9.1651513899116797</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>9.0553851381374102</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>9.16515138991168</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>8.9442719099991592</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.36660026534075</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>8.9442719099991592</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>9.1651513899116797</c:v>
+                  <c:v>9.1104335791443</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>8.9442719099991592</c:v>
+                  <c:v>8.83176086632784</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>8</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>7.9372539331937704</c:v>
+                  <c:v>8.124038404635961</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>8.7177978870813408</c:v>
+                  <c:v>7.93725393319377</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>9.21954445729288</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>9</c:v>
+                  <c:v>8.83176086632784</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>8.3066238629180695</c:v>
+                  <c:v>8.06225774829855</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>9.1651513899116797</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>9.1104335791443</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.18535277187245</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>7.87400787401181</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>8.8317608663278406</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>8.9442719099991592</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>8.06225774829855</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>8.8881944173155798</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>8.7177978870813408</c:v>
+                  <c:v>8.88819441731558</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>8.944271909999159</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>8.2462112512353194</c:v>
+                  <c:v>8.36660026534075</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>8.5440037453175304</c:v>
+                  <c:v>8.48528137423857</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>8.124038404635961</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>9.4339811320566</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>9</c:v>
+                  <c:v>9.05538513813741</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>8.1853527718724504</c:v>
+                  <c:v>8.42614977317635</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>9.2736184954957004</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.06225774829855</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>9.21954445729288</c:v>
+                  <c:v>8.88819441731558</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.71779788708134</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>8.0622577482985491</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>8.2462112512353194</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>8.0622577482985491</c:v>
+                  <c:v>8.774964387392121</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>9.1104335791443</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>8.7177978870813408</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>8</c:v>
+                  <c:v>8.60232526704262</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>9.32737905308881</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>9.53939201416945</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>8.30662386291807</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>8.4852813742385695</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>9</c:v>
+                  <c:v>9.05538513813741</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>7.8102496759066504</c:v>
+                  <c:v>8.88819441731558</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.88819441731558</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>7.7459666924148296</c:v>
+                  <c:v>8.944271909999159</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>8.54400374531753</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>8.66025403784438</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>8.3666002653407503</c:v>
+                  <c:v>8.42614977317635</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>8.4261497731763502</c:v>
+                  <c:v>9.05538513813741</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>8.6023252670426196</c:v>
+                  <c:v>8.944271909999159</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>8.6602540378443802</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89765376"/>
-        <c:axId val="149781120"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'sigma vs. m data'!$C$1:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'sigma vs. m data'!$D$1:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>13.19370760870093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.67890334113732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.520545480642722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.503614361931985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.539932556765547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.07541264560136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.26070253127689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.566783159580833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.427295045311109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.50671995190408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.525495472295354</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.520470220954381</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.588798918792143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.56221339881491</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.786022941839837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="631767816"/>
+        <c:axId val="612943128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89765376"/>
+        <c:axId val="631767816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -3010,7 +3151,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-GB"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
@@ -3038,15 +3179,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149781120"/>
+        <c:crossAx val="612943128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149781120"/>
+        <c:axId val="612943128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15"/>
+          <c:max val="20.0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -3056,7 +3198,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-GB"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
@@ -3084,13 +3226,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89765376"/>
+        <c:crossAx val="631767816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="5.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
 </c:chartSpace>
 </file>
@@ -3099,7 +3242,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3452,138 +3595,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B480"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="A481" sqref="A481:XFD481"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1">
-        <v>13.527749258468599</v>
+        <v>10.677078252031301</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <f>AVERAGE(A1:A32)</f>
+        <v>13.193707608700933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>13.1909059582729</v>
+        <v>13.711309200802001</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(A33:A64)</f>
+        <v>11.678903341137318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>13.379088160259601</v>
+        <v>15.1327459504215</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(A65:A96)</f>
+        <v>9.5205454806427223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>13.1529464379659</v>
+        <v>14.696938456699</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(A97:A128)</f>
+        <v>7.5036143619319846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>13.228756555322899</v>
+        <v>13.564659966250501</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(A129:A160)</f>
+        <v>7.5399325567655469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>13.453624047073699</v>
+        <v>14.4222051018559</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(A161:A192)</f>
+        <v>8.0754126456013591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>13.228756555322899</v>
+        <v>13.8202749610852</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(A193:A224)</f>
+        <v>8.2607025312768894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>13.228756555322899</v>
+        <v>14.3178210632763</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(A225:A256)</f>
+        <v>8.566783159580833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>13.304134695649999</v>
+        <v>15.0665191733193</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(A257:A288)</f>
+        <v>8.4272950453111086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>13.228756555322899</v>
+        <v>12.609520212918399</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(A289:A320)</f>
+        <v>8.5067199519040813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>13.527749258468599</v>
+        <v>15.033296378372899</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(A321:A352)</f>
+        <v>8.5254954722953542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>13.038404810405201</v>
+        <v>14.696938456699</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(A353:A384)</f>
+        <v>8.5204702209543814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>13.490737563232001</v>
+        <v>12.1243556529821</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(A385:A416)</f>
+        <v>8.5887989187921434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>13.266499161421599</v>
+        <v>11.874342087037901</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(A417:A448)</f>
+        <v>8.5622133988149098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>13.379088160259601</v>
+        <v>14.4222051018559</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(A449:A480)</f>
+        <v>8.7860229418398372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>13.6014705087354</v>
+        <v>15.779733838059499</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3591,7 +3839,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>13.856406460551</v>
+        <v>11.789826122551499</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -3599,7 +3847,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>13.527749258468599</v>
+        <v>11.13552872566</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3607,7 +3855,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>13.228756555322899</v>
+        <v>13.711309200802001</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -3615,7 +3863,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>13.304134695649999</v>
+        <v>13.453624047073699</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -3623,7 +3871,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>13.564659966250501</v>
+        <v>10.723805294763601</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3631,7 +3879,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>13.1529464379659</v>
+        <v>11.532562594670701</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -3639,7 +3887,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>13.3416640641263</v>
+        <v>12.0830459735945</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3647,7 +3895,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>12.961481396815699</v>
+        <v>11.6619037896906</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3655,7 +3903,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>13.379088160259601</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3663,7 +3911,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>13.038404810405201</v>
+        <v>12.328828005937901</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -3671,7 +3919,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>13.1529464379659</v>
+        <v>12.922847983320001</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3679,7 +3927,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>13.453624047073699</v>
+        <v>10.3440804327886</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -3687,7 +3935,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>13.266499161421599</v>
+        <v>13.9283882771841</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3695,7 +3943,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>13.7840487520902</v>
+        <v>13.8924439894498</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -3703,7 +3951,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>13.304134695649999</v>
+        <v>12.884098726725099</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -3711,7 +3959,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>13.114877048604001</v>
+        <v>13.856406460551</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3719,7 +3967,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>12.1243556529821</v>
+        <v>13.527749258468599</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -3727,7 +3975,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>12.1655250605964</v>
+        <v>11.8321595661992</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -3735,7 +3983,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>11.8321595661992</v>
+        <v>12.328828005937901</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -3743,7 +3991,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>11.958260743101301</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -3751,7 +3999,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>11.704699910719601</v>
+        <v>12.5698050899765</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -3759,7 +4007,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>11.6619037896906</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -3767,7 +4015,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>12.328828005937901</v>
+        <v>13.228756555322899</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -3775,7 +4023,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>12.5299640861416</v>
+        <v>10.723805294763601</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -3783,7 +4031,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>11.6619037896906</v>
+        <v>10.9087121146357</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -3791,7 +4039,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>11.575836902790201</v>
+        <v>13.304134695649999</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -3799,7 +4047,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>12.5698050899765</v>
+        <v>12.449899597988701</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3807,7 +4055,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>11.7473401244707</v>
+        <v>9.5916630466254293</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -3815,7 +4063,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>12.2065556157337</v>
+        <v>13.379088160259601</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -3823,7 +4071,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>11.7473401244707</v>
+        <v>12.806248474865599</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -3831,7 +4079,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>11.357816691600499</v>
+        <v>12.489995996796701</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -3839,7 +4087,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>11.532562594670701</v>
+        <v>10.3440804327886</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -3847,7 +4095,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>11.4455231422595</v>
+        <v>11.532562594670701</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -3855,7 +4103,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>11.916375287812899</v>
+        <v>13.747727084867501</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3863,7 +4111,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>11.916375287812899</v>
+        <v>10.488088481701499</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3871,7 +4119,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>11.6619037896906</v>
+        <v>11.8321595661992</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3879,7 +4127,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>11.6619037896906</v>
+        <v>11.7473401244707</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3887,7 +4135,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>12.369316876852899</v>
+        <v>9.7979589711327097</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3895,7 +4143,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>12.0415945787922</v>
+        <v>12.369316876852899</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3903,7 +4151,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>11.874342087037901</v>
+        <v>10.954451150103299</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3911,7 +4159,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>12.369316876852899</v>
+        <v>9.4868329805051292</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -3919,7 +4167,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>12.1243556529821</v>
+        <v>10.099504938361999</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3927,7 +4175,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>12.0415945787922</v>
+        <v>10.1488915650922</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3935,7 +4183,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>11.532562594670701</v>
+        <v>12.449899597988701</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -3943,7 +4191,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>11.789826122551499</v>
+        <v>10.099504938361999</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -3951,7 +4199,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>11.6619037896906</v>
+        <v>11.874342087037901</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -3959,7 +4207,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>11.13552872566</v>
+        <v>12.5698050899765</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -3967,7 +4215,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>12.489995996796701</v>
+        <v>12.0415945787922</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -3975,7 +4223,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>8.6602540378443802</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -3983,7 +4231,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>8.6602540378443802</v>
+        <v>10.770329614269</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -3991,7 +4239,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>9.1651513899116797</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -3999,7 +4247,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>9.1104335791442992</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -4007,7 +4255,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>8.4261497731763502</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -4015,7 +4263,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>8.4852813742385695</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -4023,7 +4271,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>8.7177978870813408</v>
+        <v>10.583005244258301</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -4031,7 +4279,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>9.0553851381374102</v>
+        <v>10.049875621120799</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -4039,7 +4287,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>8.5440037453175304</v>
+        <v>10.8627804912002</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4047,7 +4295,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>9.1104335791442992</v>
+        <v>10.3440804327886</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4055,7 +4303,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>8.5440037453175304</v>
+        <v>9.4339811320565996</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -4063,7 +4311,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>8.8881944173155798</v>
+        <v>10.2469507659595</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4071,7 +4319,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>8.8317608663278406</v>
+        <v>7.8740078740118102</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4079,7 +4327,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>9.0553851381374102</v>
+        <v>10.954451150103299</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4087,7 +4335,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>8.9442719099991592</v>
+        <v>9.89949493661166</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -4095,7 +4343,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>8.8317608663278406</v>
+        <v>10.3440804327886</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -4103,7 +4351,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>8.3666002653407503</v>
+        <v>9.7467943448089596</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -4111,7 +4359,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>8.6023252670426196</v>
+        <v>10.816653826391899</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4119,7 +4367,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>8.6602540378443802</v>
+        <v>9.2736184954957004</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -4127,7 +4375,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>8.1853527718724504</v>
+        <v>10.488088481701499</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4135,7 +4383,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>8.8317608663278406</v>
+        <v>9.6953597148326498</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -4143,7 +4391,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>9.3273790530888103</v>
+        <v>9.6436507609929496</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4151,7 +4399,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>8.5440037453175304</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -4159,7 +4407,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>9.1651513899116797</v>
+        <v>9.7979589711327097</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -4167,7 +4415,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>8.5440037453175304</v>
+        <v>8.8317608663278406</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -4175,7 +4423,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>8.4852813742385695</v>
+        <v>9.4339811320565996</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -4183,7 +4431,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>8.8881944173155798</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -4191,7 +4439,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>8.5440037453175304</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -4199,7 +4447,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>8.3666002653407503</v>
+        <v>9.3273790530888103</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -4207,7 +4455,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>9</v>
+        <v>9.4339811320565996</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -4215,7 +4463,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>9.0553851381374102</v>
+        <v>8.3666002653407503</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -4223,7 +4471,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>8.4852813742385695</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -4231,7 +4479,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>7.4161984870956603</v>
+        <v>7.5498344352707498</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4239,7 +4487,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>7.4161984870956603</v>
+        <v>7.7459666924148296</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4247,7 +4495,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>7.4161984870956603</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4255,7 +4503,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>7.48331477354788</v>
+        <v>6.4807406984078604</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4263,7 +4511,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>7.3484692283495301</v>
+        <v>7.6157731058638998</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -4271,7 +4519,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>7.4161984870956603</v>
+        <v>8.1853527718724504</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4279,7 +4527,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>7.2111025509279703</v>
+        <v>8</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4287,7 +4535,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>7.4161984870956603</v>
+        <v>7.7459666924148296</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -4295,7 +4543,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>7.1414284285428504</v>
+        <v>7.6811457478685998</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -4311,7 +4559,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>7.3484692283495301</v>
+        <v>7</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -4319,7 +4567,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>7.2111025509279703</v>
+        <v>7.48331477354788</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -4327,7 +4575,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>7.3484692283495301</v>
+        <v>7.5498344352707498</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -4335,7 +4583,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>7.4161984870956603</v>
+        <v>7.48331477354788</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -4343,7 +4591,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>7.3484692283495301</v>
+        <v>7.8740078740118102</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -4351,7 +4599,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>7.2111025509279703</v>
+        <v>7.5498344352707498</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -4359,7 +4607,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>7.2111025509279703</v>
+        <v>5.8309518948452999</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -4367,7 +4615,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>7.3484692283495301</v>
+        <v>7.0710678118654702</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -4375,7 +4623,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>7.3484692283495301</v>
+        <v>7.4161984870956603</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -4383,7 +4631,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>7.3484692283495301</v>
+        <v>7.8102496759066504</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -4391,7 +4639,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>7.5498344352707498</v>
+        <v>7.6157731058638998</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -4399,7 +4647,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>7.3484692283495301</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -4407,7 +4655,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>7.2801098892805101</v>
+        <v>7.6157731058638998</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -4415,7 +4663,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>7.0710678118654702</v>
+        <v>7.5498344352707498</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -4423,7 +4671,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>7.3484692283495301</v>
+        <v>5.9160797830996099</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -4431,7 +4679,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>7.2111025509279703</v>
+        <v>7.1414284285428504</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -4439,7 +4687,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>7.3484692283495301</v>
+        <v>7.8102496759066504</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -4447,7 +4695,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>7.4161984870956603</v>
+        <v>7.5498344352707498</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -4455,7 +4703,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>7.48331477354788</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -4463,7 +4711,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>7.4161984870956603</v>
+        <v>8</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -4471,7 +4719,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>7.4161984870956603</v>
+        <v>7.0710678118654702</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -4479,7 +4727,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>7.48331477354788</v>
+        <v>7.9372539331937704</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -4487,7 +4735,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>6.4807406984078604</v>
+        <v>5.8309518948452999</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -4495,7 +4743,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>6</v>
+        <v>5.9160797830996099</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -4503,7 +4751,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>6.0827625302982096</v>
+        <v>7.4161984870956603</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -4511,7 +4759,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>6</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -4519,7 +4767,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>6.3245553203367502</v>
+        <v>6.4807406984078604</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -4527,7 +4775,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>6.1644140029689698</v>
+        <v>9.2736184954957004</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -4535,7 +4783,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>6.3245553203367502</v>
+        <v>7.9372539331937704</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -4543,7 +4791,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>6.0827625302982096</v>
+        <v>6</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -4551,7 +4799,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>6</v>
+        <v>5.9160797830996099</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -4559,7 +4807,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>6.0827625302982096</v>
+        <v>7.1414284285428504</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -4567,7 +4815,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>6</v>
+        <v>9.5916630466254293</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -4575,7 +4823,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>6.1644140029689698</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -4583,7 +4831,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>6.1644140029689698</v>
+        <v>7.1414284285428504</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -4591,7 +4839,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>6.3245553203367502</v>
+        <v>9</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -4599,7 +4847,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>6.3245553203367502</v>
+        <v>6.7823299831252601</v>
       </c>
       <c r="B143">
         <v>6</v>
@@ -4607,7 +4855,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>5.9160797830996108</v>
+        <v>6.7823299831252601</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -4615,7 +4863,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>6.0827625302982096</v>
+        <v>6.4807406984078604</v>
       </c>
       <c r="B145">
         <v>6</v>
@@ -4623,7 +4871,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>6.4031242374328396</v>
+        <v>7.7459666924148296</v>
       </c>
       <c r="B146">
         <v>6</v>
@@ -4631,7 +4879,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>5.8309518948452999</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="B147">
         <v>6</v>
@@ -4639,7 +4887,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>6.0827625302982096</v>
+        <v>7.2111025509279703</v>
       </c>
       <c r="B148">
         <v>6</v>
@@ -4647,7 +4895,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>6</v>
+        <v>9.2736184954957004</v>
       </c>
       <c r="B149">
         <v>6</v>
@@ -4655,7 +4903,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>6.2449979983983903</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B150">
         <v>6</v>
@@ -4663,7 +4911,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>6.2449979983983903</v>
+        <v>7.2111025509279703</v>
       </c>
       <c r="B151">
         <v>6</v>
@@ -4671,7 +4919,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>6.1644140029689698</v>
+        <v>7.48331477354788</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -4679,7 +4927,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>6.1644140029689698</v>
+        <v>6.8556546004010404</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -4687,7 +4935,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>6</v>
+        <v>8.2462112512353194</v>
       </c>
       <c r="B154">
         <v>6</v>
@@ -4695,7 +4943,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>6.5574385243020004</v>
+        <v>7.2801098892805101</v>
       </c>
       <c r="B155">
         <v>6</v>
@@ -4703,7 +4951,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>6</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B156">
         <v>6</v>
@@ -4711,7 +4959,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>6.3245553203367502</v>
+        <v>7.4161984870956603</v>
       </c>
       <c r="B157">
         <v>6</v>
@@ -4719,7 +4967,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>6.0827625302982096</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B158">
         <v>6</v>
@@ -4735,7 +4983,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>6.1644140029689698</v>
+        <v>8</v>
       </c>
       <c r="B160">
         <v>6</v>
@@ -4743,7 +4991,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>7</v>
+        <v>9.4339811320565996</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -4751,7 +4999,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>7.1414284285428504</v>
+        <v>8.9442719099991557</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -4759,7 +5007,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>7.2111025509279703</v>
+        <v>9.7467943448089596</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -4767,7 +5015,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>7.4161984870956603</v>
+        <v>10.3923048454132</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -4775,7 +5023,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>7.0710678118654702</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B165">
         <v>7</v>
@@ -4783,7 +5031,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>7.2801098892805101</v>
+        <v>8.2462112512353176</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -4791,7 +5039,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>7.5498344352707498</v>
+        <v>8.9442719099991557</v>
       </c>
       <c r="B167">
         <v>7</v>
@@ -4799,7 +5047,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>7.2111025509279703</v>
+        <v>5.2915026221291797</v>
       </c>
       <c r="B168">
         <v>7</v>
@@ -4807,7 +5055,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>7.3484692283495301</v>
+        <v>8.774964387392119</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -4815,7 +5063,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>7.1414284285428504</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B170">
         <v>7</v>
@@ -4823,7 +5071,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>7.3484692283495301</v>
+        <v>6</v>
       </c>
       <c r="B171">
         <v>7</v>
@@ -4831,7 +5079,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>7.3484692283495301</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -4839,7 +5087,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>7.4161984870956603</v>
+        <v>9.7467943448089596</v>
       </c>
       <c r="B173">
         <v>7</v>
@@ -4847,7 +5095,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>7.5498344352707498</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B174">
         <v>7</v>
@@ -4855,7 +5103,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>6.9282032302754999</v>
+        <v>6.1644140029689698</v>
       </c>
       <c r="B175">
         <v>7</v>
@@ -4863,7 +5111,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>7.2111025509279703</v>
+        <v>8.2462112512353176</v>
       </c>
       <c r="B176">
         <v>7</v>
@@ -4871,7 +5119,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>7.1414284285428504</v>
+        <v>5.6568542494923797</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -4879,7 +5127,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>7.2111025509279703</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -4887,7 +5135,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>7.48331477354788</v>
+        <v>6.4807406984078604</v>
       </c>
       <c r="B179">
         <v>7</v>
@@ -4895,7 +5143,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>7.1414284285428504</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -4903,7 +5151,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>7.4161984870956603</v>
+        <v>7</v>
       </c>
       <c r="B181">
         <v>7</v>
@@ -4911,7 +5159,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>7.48331477354788</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B182">
         <v>7</v>
@@ -4919,7 +5167,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>7.3484692283495301</v>
+        <v>4.3588989435406704</v>
       </c>
       <c r="B183">
         <v>7</v>
@@ -4927,7 +5175,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>7.0710678118654702</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -4935,7 +5183,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>7.1414284285428504</v>
+        <v>6.2449979983983903</v>
       </c>
       <c r="B185">
         <v>7</v>
@@ -4943,7 +5191,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>7.4161984870956603</v>
+        <v>7.2111025509279703</v>
       </c>
       <c r="B186">
         <v>7</v>
@@ -4951,7 +5199,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>7.4161984870956603</v>
+        <v>9.4868329805051292</v>
       </c>
       <c r="B187">
         <v>7</v>
@@ -4959,7 +5207,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>7.0710678118654702</v>
+        <v>6.8556546004010404</v>
       </c>
       <c r="B188">
         <v>7</v>
@@ -4967,7 +5215,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>7.5498344352707498</v>
+        <v>9</v>
       </c>
       <c r="B189">
         <v>7</v>
@@ -4975,7 +5223,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>7.0710678118654702</v>
+        <v>10.099504938361999</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -4983,7 +5231,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>7.2111025509279703</v>
+        <v>8</v>
       </c>
       <c r="B191">
         <v>7</v>
@@ -4991,7 +5239,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>7.4161984870956603</v>
+        <v>9.1104335791443027</v>
       </c>
       <c r="B192">
         <v>7</v>
@@ -4999,7 +5247,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>8.8881944173155798</v>
+        <v>9.1104335791442992</v>
       </c>
       <c r="B193">
         <v>8</v>
@@ -5007,7 +5255,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>9.1651513899116797</v>
+        <v>5.7445626465380197</v>
       </c>
       <c r="B194">
         <v>8</v>
@@ -5015,7 +5263,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>9.4868329805051292</v>
+        <v>6.3245553203367502</v>
       </c>
       <c r="B195">
         <v>8</v>
@@ -5023,7 +5271,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>9.5393920141694508</v>
+        <v>7.48331477354788</v>
       </c>
       <c r="B196">
         <v>8</v>
@@ -5031,7 +5279,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>9.3273790530888103</v>
+        <v>7.48331477354788</v>
       </c>
       <c r="B197">
         <v>8</v>
@@ -5039,7 +5287,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>9.21954445729288</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B198">
         <v>8</v>
@@ -5047,7 +5295,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>9.3273790530888103</v>
+        <v>9.9498743710661994</v>
       </c>
       <c r="B199">
         <v>8</v>
@@ -5055,7 +5303,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>9.1104335791443027</v>
+        <v>7.3484692283495301</v>
       </c>
       <c r="B200">
         <v>8</v>
@@ -5063,7 +5311,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>9.21954445729288</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B201">
         <v>8</v>
@@ -5071,7 +5319,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>9.1651513899116797</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B202">
         <v>8</v>
@@ -5079,7 +5327,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>9.1104335791443027</v>
+        <v>9.1104335791442992</v>
       </c>
       <c r="B203">
         <v>8</v>
@@ -5087,7 +5335,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>9.1104335791443027</v>
+        <v>7.0710678118654702</v>
       </c>
       <c r="B204">
         <v>8</v>
@@ -5095,7 +5343,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>9.2736184954957004</v>
+        <v>9.6953597148326498</v>
       </c>
       <c r="B205">
         <v>8</v>
@@ -5103,7 +5351,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>9.21954445729288</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B206">
         <v>8</v>
@@ -5111,7 +5359,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>9.0553851381374102</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B207">
         <v>8</v>
@@ -5119,7 +5367,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>9.1104335791443027</v>
+        <v>9.8488578017961004</v>
       </c>
       <c r="B208">
         <v>8</v>
@@ -5127,7 +5375,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>8.7177978870813408</v>
+        <v>10.099504938361999</v>
       </c>
       <c r="B209">
         <v>8</v>
@@ -5135,7 +5383,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>9</v>
+        <v>8.8317608663278406</v>
       </c>
       <c r="B210">
         <v>8</v>
@@ -5143,7 +5391,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>9.3808315196468612</v>
+        <v>6.6332495807107996</v>
       </c>
       <c r="B211">
         <v>8</v>
@@ -5151,7 +5399,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>9.1104335791443027</v>
+        <v>9.5393920141694508</v>
       </c>
       <c r="B212">
         <v>8</v>
@@ -5159,7 +5407,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>9.0553851381374102</v>
+        <v>6.8556546004010404</v>
       </c>
       <c r="B213">
         <v>8</v>
@@ -5167,7 +5415,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>8.9442719099991557</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B214">
         <v>8</v>
@@ -5175,7 +5423,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>9.5916630466254276</v>
+        <v>9.6436507609929496</v>
       </c>
       <c r="B215">
         <v>8</v>
@@ -5183,7 +5431,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>9.1651513899116797</v>
+        <v>10.099504938361999</v>
       </c>
       <c r="B216">
         <v>8</v>
@@ -5191,7 +5439,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>9.1651513899116797</v>
+        <v>9.6953597148326498</v>
       </c>
       <c r="B217">
         <v>8</v>
@@ -5199,7 +5447,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>9.3273790530888103</v>
+        <v>6.1644140029689698</v>
       </c>
       <c r="B218">
         <v>8</v>
@@ -5207,7 +5455,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>9.3808315196468612</v>
+        <v>10.3923048454132</v>
       </c>
       <c r="B219">
         <v>8</v>
@@ -5215,7 +5463,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>9.1104335791443027</v>
+        <v>6.5574385243020004</v>
       </c>
       <c r="B220">
         <v>8</v>
@@ -5223,7 +5471,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>9.21954445729288</v>
+        <v>7.5498344352707498</v>
       </c>
       <c r="B221">
         <v>8</v>
@@ -5231,7 +5479,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>8.9442719099991557</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B222">
         <v>8</v>
@@ -5239,7 +5487,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>8.8881944173155798</v>
+        <v>7.1414284285428504</v>
       </c>
       <c r="B223">
         <v>8</v>
@@ -5247,7 +5495,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>9.1104335791443027</v>
+        <v>7.6811457478685998</v>
       </c>
       <c r="B224">
         <v>8</v>
@@ -5255,7 +5503,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>8.1853527718724504</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B225">
         <v>9</v>
@@ -5263,7 +5511,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>7.6811457478685998</v>
+        <v>7.8740078740118102</v>
       </c>
       <c r="B226">
         <v>9</v>
@@ -5271,7 +5519,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>7.6811457478685998</v>
+        <v>8.8881944173155798</v>
       </c>
       <c r="B227">
         <v>9</v>
@@ -5287,7 +5535,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>7.8740078740118102</v>
+        <v>8.3666002653407503</v>
       </c>
       <c r="B229">
         <v>9</v>
@@ -5295,7 +5543,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>8.1853527718724504</v>
+        <v>9.4339811320565996</v>
       </c>
       <c r="B230">
         <v>9</v>
@@ -5303,7 +5551,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>7.5498344352707498</v>
+        <v>9.2736184954957004</v>
       </c>
       <c r="B231">
         <v>9</v>
@@ -5311,7 +5559,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>7.6157731058638998</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B232">
         <v>9</v>
@@ -5319,7 +5567,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>7.4161984870956603</v>
+        <v>7.3484692283495301</v>
       </c>
       <c r="B233">
         <v>9</v>
@@ -5327,7 +5575,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>7.2801098892805101</v>
+        <v>7.8740078740118102</v>
       </c>
       <c r="B234">
         <v>9</v>
@@ -5335,7 +5583,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>7.2111025509279703</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B235">
         <v>9</v>
@@ -5351,7 +5599,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>8</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B237">
         <v>9</v>
@@ -5359,7 +5607,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>7.5498344352707498</v>
+        <v>9.6436507609929496</v>
       </c>
       <c r="B238">
         <v>9</v>
@@ -5367,7 +5615,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>7.6811457478685998</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B239">
         <v>9</v>
@@ -5375,7 +5623,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>7.8740078740118102</v>
+        <v>7.0710678118654702</v>
       </c>
       <c r="B240">
         <v>9</v>
@@ -5383,7 +5631,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>7.8740078740118102</v>
+        <v>7.8102496759066504</v>
       </c>
       <c r="B241">
         <v>9</v>
@@ -5391,7 +5639,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>7.7459666924148296</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B242">
         <v>9</v>
@@ -5399,7 +5647,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>7.6811457478685998</v>
+        <v>9.2736184954957004</v>
       </c>
       <c r="B243">
         <v>9</v>
@@ -5407,7 +5655,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>8.0622577482985491</v>
+        <v>7.2801098892805101</v>
       </c>
       <c r="B244">
         <v>9</v>
@@ -5415,7 +5663,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>7.48331477354788</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B245">
         <v>9</v>
@@ -5423,7 +5671,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>7.4161984870956603</v>
+        <v>10.1980390271855</v>
       </c>
       <c r="B246">
         <v>9</v>
@@ -5431,7 +5679,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>7.6157731058638998</v>
+        <v>10.583005244258301</v>
       </c>
       <c r="B247">
         <v>9</v>
@@ -5439,7 +5687,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>7.7459666924148296</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B248">
         <v>9</v>
@@ -5447,7 +5695,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>7.6811457478685998</v>
+        <v>7.9372539331937704</v>
       </c>
       <c r="B249">
         <v>9</v>
@@ -5455,7 +5703,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>8.1853527718724504</v>
+        <v>7.5498344352707498</v>
       </c>
       <c r="B250">
         <v>9</v>
@@ -5463,7 +5711,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>7.9372539331937704</v>
+        <v>8.1853527718724504</v>
       </c>
       <c r="B251">
         <v>9</v>
@@ -5471,7 +5719,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>7.6811457478685998</v>
+        <v>10.583005244258301</v>
       </c>
       <c r="B252">
         <v>9</v>
@@ -5479,7 +5727,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>8.0622577482985491</v>
+        <v>9.6953597148326498</v>
       </c>
       <c r="B253">
         <v>9</v>
@@ -5487,7 +5735,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>7.5498344352707498</v>
+        <v>7</v>
       </c>
       <c r="B254">
         <v>9</v>
@@ -5495,7 +5743,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>7.6811457478685998</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B255">
         <v>9</v>
@@ -5503,7 +5751,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>7.9372539331937704</v>
+        <v>9.89949493661166</v>
       </c>
       <c r="B256">
         <v>9</v>
@@ -5511,7 +5759,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>8.4261497731763502</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B257">
         <v>10</v>
@@ -5519,7 +5767,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>8.4852813742385695</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B258">
         <v>10</v>
@@ -5527,7 +5775,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>8.2462112512353194</v>
+        <v>9.6436507609929496</v>
       </c>
       <c r="B259">
         <v>10</v>
@@ -5535,7 +5783,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>8.1853527718724504</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B260">
         <v>10</v>
@@ -5543,7 +5791,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>8.1853527718724504</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B261">
         <v>10</v>
@@ -5551,7 +5799,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>8.3066238629180695</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B262">
         <v>10</v>
@@ -5559,7 +5807,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>8.6602540378443802</v>
+        <v>7.0710678118654702</v>
       </c>
       <c r="B263">
         <v>10</v>
@@ -5567,7 +5815,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>8.4261497731763502</v>
+        <v>8.8317608663278406</v>
       </c>
       <c r="B264">
         <v>10</v>
@@ -5575,7 +5823,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>8.4261497731763502</v>
+        <v>7.9372539331937704</v>
       </c>
       <c r="B265">
         <v>10</v>
@@ -5583,7 +5831,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B266">
         <v>10</v>
@@ -5591,7 +5839,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>8.5440037453175304</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B267">
         <v>10</v>
@@ -5599,7 +5847,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>8.3066238629180695</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B268">
         <v>10</v>
@@ -5607,7 +5855,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>7.8102496759066504</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B269">
         <v>10</v>
@@ -5615,7 +5863,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>8.5440037453175304</v>
+        <v>6.8556546004010404</v>
       </c>
       <c r="B270">
         <v>10</v>
@@ -5623,7 +5871,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>8.4261497731763502</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B271">
         <v>10</v>
@@ -5631,7 +5879,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>8</v>
+        <v>8.3666002653407503</v>
       </c>
       <c r="B272">
         <v>10</v>
@@ -5639,7 +5887,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>7.8102496759066504</v>
+        <v>9.2736184954957004</v>
       </c>
       <c r="B273">
         <v>10</v>
@@ -5647,7 +5895,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>8.5440037453175304</v>
+        <v>7.3484692283495301</v>
       </c>
       <c r="B274">
         <v>10</v>
@@ -5655,7 +5903,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>8.0622577482985491</v>
+        <v>7.1414284285428504</v>
       </c>
       <c r="B275">
         <v>10</v>
@@ -5663,7 +5911,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>8.0622577482985491</v>
+        <v>7.7459666924148296</v>
       </c>
       <c r="B276">
         <v>10</v>
@@ -5671,7 +5919,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>8.1240384046359608</v>
+        <v>8.3666002653407503</v>
       </c>
       <c r="B277">
         <v>10</v>
@@ -5679,7 +5927,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>8.3066238629180695</v>
+        <v>9.6953597148326498</v>
       </c>
       <c r="B278">
         <v>10</v>
@@ -5687,7 +5935,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>7.7459666924148296</v>
+        <v>9.6436507609929496</v>
       </c>
       <c r="B279">
         <v>10</v>
@@ -5695,7 +5943,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>8.7749643873921208</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B280">
         <v>10</v>
@@ -5703,7 +5951,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>8.6602540378443802</v>
+        <v>7.9372539331937704</v>
       </c>
       <c r="B281">
         <v>10</v>
@@ -5711,7 +5959,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>8.3066238629180695</v>
+        <v>9.5916630466254293</v>
       </c>
       <c r="B282">
         <v>10</v>
@@ -5719,7 +5967,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>8</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B283">
         <v>10</v>
@@ -5727,7 +5975,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>8.3066238629180695</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B284">
         <v>10</v>
@@ -5735,7 +5983,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>8</v>
+        <v>8.8317608663278406</v>
       </c>
       <c r="B285">
         <v>10</v>
@@ -5743,7 +5991,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>8.3666002653407503</v>
+        <v>7.8740078740118102</v>
       </c>
       <c r="B286">
         <v>10</v>
@@ -5751,7 +5999,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>8.1853527718724504</v>
+        <v>7.6157731058638998</v>
       </c>
       <c r="B287">
         <v>10</v>
@@ -5759,7 +6007,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>8.5440037453175304</v>
+        <v>7.7459666924148296</v>
       </c>
       <c r="B288">
         <v>10</v>
@@ -5767,7 +6015,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>8.4852813742385695</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B289">
         <v>11</v>
@@ -5775,7 +6023,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>8.6023252670426196</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B290">
         <v>11</v>
@@ -5783,7 +6031,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>7.6811457478685998</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B291">
         <v>11</v>
@@ -5791,7 +6039,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>7.8102496759066504</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B292">
         <v>11</v>
@@ -5799,7 +6047,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>8.1853527718724504</v>
+        <v>7.2801098892805101</v>
       </c>
       <c r="B293">
         <v>11</v>
@@ -5807,7 +6055,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>7.7459666924148296</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="B294">
         <v>11</v>
@@ -5815,7 +6063,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>8.7749643873921208</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="B295">
         <v>11</v>
@@ -5823,7 +6071,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>8.1853527718724504</v>
+        <v>7.8102496759066504</v>
       </c>
       <c r="B296">
         <v>11</v>
@@ -5831,7 +6079,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>8.3066238629180695</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B297">
         <v>11</v>
@@ -5839,7 +6087,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>8</v>
+        <v>7.2111025509279703</v>
       </c>
       <c r="B298">
         <v>11</v>
@@ -5847,7 +6095,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>7.9372539331937704</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B299">
         <v>11</v>
@@ -5855,7 +6103,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>8.6023252670426196</v>
+        <v>9.6953597148326498</v>
       </c>
       <c r="B300">
         <v>11</v>
@@ -5863,7 +6111,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>8.2462112512353194</v>
+        <v>9.4868329805051292</v>
       </c>
       <c r="B301">
         <v>11</v>
@@ -5871,7 +6119,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>8.4261497731763502</v>
+        <v>9.4868329805051292</v>
       </c>
       <c r="B302">
         <v>11</v>
@@ -5879,7 +6127,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>8.1240384046359608</v>
+        <v>7.9372539331937704</v>
       </c>
       <c r="B303">
         <v>11</v>
@@ -5887,7 +6135,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>8.6023252670426196</v>
+        <v>9</v>
       </c>
       <c r="B304">
         <v>11</v>
@@ -5895,7 +6143,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>8.1853527718724504</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B305">
         <v>11</v>
@@ -5903,7 +6151,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>8.1240384046359608</v>
+        <v>9.2736184954957004</v>
       </c>
       <c r="B306">
         <v>11</v>
@@ -5911,7 +6159,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>8.6023252670426196</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B307">
         <v>11</v>
@@ -5919,7 +6167,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>8.0622577482985491</v>
+        <v>9.3808315196468595</v>
       </c>
       <c r="B308">
         <v>11</v>
@@ -5927,7 +6175,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>8.5440037453175304</v>
+        <v>7.8740078740118102</v>
       </c>
       <c r="B309">
         <v>11</v>
@@ -5935,7 +6183,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>8.2462112512353194</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B310">
         <v>11</v>
@@ -5943,7 +6191,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>8.2462112512353194</v>
+        <v>8.8881944173155798</v>
       </c>
       <c r="B311">
         <v>11</v>
@@ -5951,7 +6199,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>7.8102496759066504</v>
+        <v>9.6953597148326498</v>
       </c>
       <c r="B312">
         <v>11</v>
@@ -5959,7 +6207,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>8.8317608663278406</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B313">
         <v>11</v>
@@ -5967,7 +6215,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>7.9372539331937704</v>
+        <v>7.8102496759066504</v>
       </c>
       <c r="B314">
         <v>11</v>
@@ -5975,7 +6223,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>8.4261497731763502</v>
+        <v>7.8102496759066504</v>
       </c>
       <c r="B315">
         <v>11</v>
@@ -5983,7 +6231,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>8.6602540378443802</v>
+        <v>8.3666002653407503</v>
       </c>
       <c r="B316">
         <v>11</v>
@@ -5991,7 +6239,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>8.1853527718724504</v>
+        <v>7.4161984870956603</v>
       </c>
       <c r="B317">
         <v>11</v>
@@ -5999,7 +6247,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>8.5440037453175304</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B318">
         <v>11</v>
@@ -6007,7 +6255,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>8.1853527718724504</v>
+        <v>9.1651513899116797</v>
       </c>
       <c r="B319">
         <v>11</v>
@@ -6015,7 +6263,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>8.4261497731763502</v>
+        <v>9.21954445729288</v>
       </c>
       <c r="B320">
         <v>11</v>
@@ -6023,7 +6271,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>8.6023252670426196</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B321">
         <v>12</v>
@@ -6031,7 +6279,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>8.3066238629180695</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B322">
         <v>12</v>
@@ -6039,7 +6287,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>8.3066238629180695</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B323">
         <v>12</v>
@@ -6047,7 +6295,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>8.8317608663278406</v>
+        <v>8.2462112512353194</v>
       </c>
       <c r="B324">
         <v>12</v>
@@ -6055,7 +6303,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>8.7177978870813408</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B325">
         <v>12</v>
@@ -6063,7 +6311,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>8.6602540378443802</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B326">
         <v>12</v>
@@ -6071,7 +6319,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>8.6023252670426196</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="B327">
         <v>12</v>
@@ -6079,7 +6327,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>8.7177978870813408</v>
+        <v>7.5498344352707498</v>
       </c>
       <c r="B328">
         <v>12</v>
@@ -6087,7 +6335,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>8.3066238629180695</v>
+        <v>8.1853527718724504</v>
       </c>
       <c r="B329">
         <v>12</v>
@@ -6095,7 +6343,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>8.0622577482985491</v>
+        <v>7.8740078740118102</v>
       </c>
       <c r="B330">
         <v>12</v>
@@ -6103,7 +6351,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>8.8317608663278406</v>
+        <v>9.1104335791442992</v>
       </c>
       <c r="B331">
         <v>12</v>
@@ -6111,7 +6359,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>8.4852813742385695</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B332">
         <v>12</v>
@@ -6127,7 +6375,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>8.4261497731763502</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B334">
         <v>12</v>
@@ -6135,7 +6383,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>9.1104335791442992</v>
+        <v>7.6811457478685998</v>
       </c>
       <c r="B335">
         <v>12</v>
@@ -6143,7 +6391,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>8.2462112512353194</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B336">
         <v>12</v>
@@ -6151,7 +6399,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>8.7749643873921208</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B337">
         <v>12</v>
@@ -6159,7 +6407,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>8.0622577482985491</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B338">
         <v>12</v>
@@ -6167,7 +6415,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>8.1853527718724504</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B339">
         <v>12</v>
@@ -6175,7 +6423,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>8.7749643873921208</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B340">
         <v>12</v>
@@ -6183,7 +6431,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>8.4852813742385695</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B341">
         <v>12</v>
@@ -6191,7 +6439,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>8.3666002653407503</v>
+        <v>7.7459666924148296</v>
       </c>
       <c r="B342">
         <v>12</v>
@@ -6199,7 +6447,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>8.9442719099991592</v>
+        <v>8.8881944173155798</v>
       </c>
       <c r="B343">
         <v>12</v>
@@ -6207,7 +6455,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>8.7749643873921208</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B344">
         <v>12</v>
@@ -6223,7 +6471,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>8.6602540378443802</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B346">
         <v>12</v>
@@ -6231,7 +6479,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>8.6023252670426196</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B347">
         <v>12</v>
@@ -6239,7 +6487,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>8.7177978870813408</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B348">
         <v>12</v>
@@ -6247,7 +6495,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>8.1853527718724504</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B349">
         <v>12</v>
@@ -6255,7 +6503,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>8.5440037453175304</v>
+        <v>9.3273790530888103</v>
       </c>
       <c r="B350">
         <v>12</v>
@@ -6263,7 +6511,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>8.3666002653407503</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="B351">
         <v>12</v>
@@ -6271,7 +6519,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>8.0622577482985491</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B352">
         <v>12</v>
@@ -6279,7 +6527,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>8.4852813742385695</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B353">
         <v>13</v>
@@ -6287,7 +6535,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>8.2462112512353194</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B354">
         <v>13</v>
@@ -6295,7 +6543,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355">
-        <v>8.3666002653407503</v>
+        <v>7.8740078740118102</v>
       </c>
       <c r="B355">
         <v>13</v>
@@ -6303,7 +6551,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>8.4852813742385695</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B356">
         <v>13</v>
@@ -6311,7 +6559,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>8.1853527718724504</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B357">
         <v>13</v>
@@ -6319,7 +6567,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>8.1853527718724504</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="B358">
         <v>13</v>
@@ -6327,7 +6575,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>8.4852813742385695</v>
+        <v>8.2462112512353194</v>
       </c>
       <c r="B359">
         <v>13</v>
@@ -6335,7 +6583,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>8.3066238629180695</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B360">
         <v>13</v>
@@ -6343,7 +6591,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361">
-        <v>8.7177978870813408</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B361">
         <v>13</v>
@@ -6351,7 +6599,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>8.0622577482985491</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B362">
         <v>13</v>
@@ -6359,7 +6607,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>8.3666002653407503</v>
+        <v>8</v>
       </c>
       <c r="B363">
         <v>13</v>
@@ -6367,7 +6615,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>8.2462112512353194</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B364">
         <v>13</v>
@@ -6375,7 +6623,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>7.7459666924148296</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B365">
         <v>13</v>
@@ -6383,7 +6631,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366">
-        <v>7.9372539331937704</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B366">
         <v>13</v>
@@ -6391,7 +6639,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367">
-        <v>7.6157731058638998</v>
+        <v>9.1104335791442992</v>
       </c>
       <c r="B367">
         <v>13</v>
@@ -6399,7 +6647,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>7.9372539331937704</v>
+        <v>9.3273790530888103</v>
       </c>
       <c r="B368">
         <v>13</v>
@@ -6407,7 +6655,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369">
-        <v>7.5498344352707498</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B369">
         <v>13</v>
@@ -6415,7 +6663,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>8</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B370">
         <v>13</v>
@@ -6423,7 +6671,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371">
-        <v>8.3066238629180695</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B371">
         <v>13</v>
@@ -6431,7 +6679,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>8.4852813742385695</v>
+        <v>8.1853527718724504</v>
       </c>
       <c r="B372">
         <v>13</v>
@@ -6439,7 +6687,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>8</v>
+        <v>8.2462112512353194</v>
       </c>
       <c r="B373">
         <v>13</v>
@@ -6447,7 +6695,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>7.8102496759066504</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B374">
         <v>13</v>
@@ -6455,7 +6703,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375">
-        <v>8.4261497731763502</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B375">
         <v>13</v>
@@ -6463,7 +6711,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376">
-        <v>8.7749643873921208</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B376">
         <v>13</v>
@@ -6471,7 +6719,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377">
-        <v>8.5440037453175304</v>
+        <v>8.8317608663278406</v>
       </c>
       <c r="B377">
         <v>13</v>
@@ -6479,7 +6727,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>7.8102496759066504</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B378">
         <v>13</v>
@@ -6487,7 +6735,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379">
-        <v>8.1240384046359608</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B379">
         <v>13</v>
@@ -6495,7 +6743,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380">
-        <v>7.9372539331937704</v>
+        <v>8.2462112512353194</v>
       </c>
       <c r="B380">
         <v>13</v>
@@ -6503,7 +6751,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>7.8102496759066504</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B381">
         <v>13</v>
@@ -6511,7 +6759,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382">
-        <v>8.4261497731763502</v>
+        <v>9.1651513899116797</v>
       </c>
       <c r="B382">
         <v>13</v>
@@ -6527,7 +6775,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384">
-        <v>8.4261497731763502</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B384">
         <v>13</v>
@@ -6535,7 +6783,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385">
-        <v>9.1104335791442992</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B385">
         <v>14</v>
@@ -6543,7 +6791,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>8.3066238629180695</v>
+        <v>8.8317608663278406</v>
       </c>
       <c r="B386">
         <v>14</v>
@@ -6551,7 +6799,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387">
-        <v>8.7749643873921208</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B387">
         <v>14</v>
@@ -6559,7 +6807,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388">
-        <v>8.2462112512353194</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B388">
         <v>14</v>
@@ -6567,7 +6815,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389">
-        <v>8.8317608663278406</v>
+        <v>8</v>
       </c>
       <c r="B389">
         <v>14</v>
@@ -6575,7 +6823,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>8.8881944173155798</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B390">
         <v>14</v>
@@ -6583,7 +6831,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391">
-        <v>8.6023252670426196</v>
+        <v>8.2462112512353194</v>
       </c>
       <c r="B391">
         <v>14</v>
@@ -6591,7 +6839,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392">
-        <v>7.8740078740118102</v>
+        <v>8.8881944173155798</v>
       </c>
       <c r="B392">
         <v>14</v>
@@ -6599,7 +6847,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>8.7749643873921208</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="B393">
         <v>14</v>
@@ -6607,7 +6855,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394">
-        <v>8.2462112512353194</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B394">
         <v>14</v>
@@ -6615,7 +6863,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395">
-        <v>8.6602540378443802</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B395">
         <v>14</v>
@@ -6631,7 +6879,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>8.4261497731763502</v>
+        <v>8.8317608663278406</v>
       </c>
       <c r="B397">
         <v>14</v>
@@ -6639,7 +6887,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398">
-        <v>8.8317608663278406</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B398">
         <v>14</v>
@@ -6647,7 +6895,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399">
-        <v>8.4852813742385695</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B399">
         <v>14</v>
@@ -6655,7 +6903,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400">
-        <v>8.1853527718724504</v>
+        <v>9.1651513899116797</v>
       </c>
       <c r="B400">
         <v>14</v>
@@ -6663,7 +6911,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401">
-        <v>8.0622577482985491</v>
+        <v>8.1853527718724504</v>
       </c>
       <c r="B401">
         <v>14</v>
@@ -6671,7 +6919,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>8.6602540378443802</v>
+        <v>8.8881944173155798</v>
       </c>
       <c r="B402">
         <v>14</v>
@@ -6679,7 +6927,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>8.6602540378443802</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B403">
         <v>14</v>
@@ -6687,7 +6935,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404">
-        <v>8.8317608663278406</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B404">
         <v>14</v>
@@ -6695,7 +6943,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>8.9442719099991592</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B405">
         <v>14</v>
@@ -6703,7 +6951,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406">
-        <v>8.4852813742385695</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B406">
         <v>14</v>
@@ -6711,7 +6959,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>8.0622577482985491</v>
+        <v>7.5498344352707498</v>
       </c>
       <c r="B407">
         <v>14</v>
@@ -6719,7 +6967,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>8.3066238629180695</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B408">
         <v>14</v>
@@ -6727,7 +6975,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>8.4261497731763502</v>
+        <v>7.8102496759066504</v>
       </c>
       <c r="B409">
         <v>14</v>
@@ -6735,7 +6983,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410">
-        <v>8.4261497731763502</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B410">
         <v>14</v>
@@ -6743,7 +6991,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>8.4852813742385695</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B411">
         <v>14</v>
@@ -6751,7 +6999,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412">
-        <v>8.3066238629180695</v>
+        <v>9.3808315196468595</v>
       </c>
       <c r="B412">
         <v>14</v>
@@ -6759,7 +7007,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>8.6023252670426196</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B413">
         <v>14</v>
@@ -6767,7 +7015,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414">
-        <v>8.9442719099991592</v>
+        <v>8.2462112512353194</v>
       </c>
       <c r="B414">
         <v>14</v>
@@ -6775,7 +7023,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415">
-        <v>8.4852813742385695</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B415">
         <v>14</v>
@@ -6783,7 +7031,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>8.6602540378443802</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B416">
         <v>14</v>
@@ -6791,7 +7039,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417">
-        <v>8</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B417">
         <v>15</v>
@@ -6799,7 +7047,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>8.4852813742385695</v>
+        <v>7.9372539331937704</v>
       </c>
       <c r="B418">
         <v>15</v>
@@ -6807,7 +7055,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419">
-        <v>9.1651513899116797</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B419">
         <v>15</v>
@@ -6815,7 +7063,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420">
-        <v>8.4261497731763502</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B420">
         <v>15</v>
@@ -6823,7 +7071,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421">
-        <v>9.0553851381374102</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B421">
         <v>15</v>
@@ -6831,7 +7079,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422">
-        <v>8.6023252670426196</v>
+        <v>9.1651513899116797</v>
       </c>
       <c r="B422">
         <v>15</v>
@@ -6839,7 +7087,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423">
-        <v>8.9442719099991592</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B423">
         <v>15</v>
@@ -6847,7 +7095,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424">
-        <v>8.8317608663278406</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B424">
         <v>15</v>
@@ -6855,7 +7103,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>8.4261497731763502</v>
+        <v>8.3666002653407503</v>
       </c>
       <c r="B425">
         <v>15</v>
@@ -6863,7 +7111,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>8.9442719099991592</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B426">
         <v>15</v>
@@ -6871,7 +7119,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>9.1651513899116797</v>
+        <v>9.1104335791442992</v>
       </c>
       <c r="B427">
         <v>15</v>
@@ -6879,7 +7127,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428">
-        <v>8.9442719099991592</v>
+        <v>8.8317608663278406</v>
       </c>
       <c r="B428">
         <v>15</v>
@@ -6887,7 +7135,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>8</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B429">
         <v>15</v>
@@ -6895,7 +7143,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>7.9372539331937704</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B430">
         <v>15</v>
@@ -6903,7 +7151,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>8.7177978870813408</v>
+        <v>7.9372539331937704</v>
       </c>
       <c r="B431">
         <v>15</v>
@@ -6911,7 +7159,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432">
-        <v>8.6602540378443802</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B432">
         <v>15</v>
@@ -6919,7 +7167,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433">
-        <v>9.21954445729288</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B433">
         <v>15</v>
@@ -6927,7 +7175,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434">
-        <v>9</v>
+        <v>8.8317608663278406</v>
       </c>
       <c r="B434">
         <v>15</v>
@@ -6935,7 +7183,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435">
-        <v>8.3066238629180695</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B435">
         <v>15</v>
@@ -6943,7 +7191,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436">
-        <v>9.1651513899116797</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B436">
         <v>15</v>
@@ -6951,7 +7199,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437">
-        <v>8.6023252670426196</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B437">
         <v>15</v>
@@ -6959,7 +7207,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438">
-        <v>8.4261497731763502</v>
+        <v>9.1104335791442992</v>
       </c>
       <c r="B438">
         <v>15</v>
@@ -6967,7 +7215,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439">
-        <v>8.4261497731763502</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B439">
         <v>15</v>
@@ -6975,7 +7223,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440">
-        <v>8.6023252670426196</v>
+        <v>9</v>
       </c>
       <c r="B440">
         <v>15</v>
@@ -6983,7 +7231,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441">
-        <v>8.6602540378443802</v>
+        <v>8.1853527718724504</v>
       </c>
       <c r="B441">
         <v>15</v>
@@ -6991,7 +7239,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>8.1853527718724504</v>
+        <v>7.8740078740118102</v>
       </c>
       <c r="B442">
         <v>15</v>
@@ -6999,7 +7247,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443">
-        <v>8.8317608663278406</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B443">
         <v>15</v>
@@ -7007,7 +7255,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444">
-        <v>8.9442719099991592</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B444">
         <v>15</v>
@@ -7015,7 +7263,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445">
-        <v>8.1853527718724504</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B445">
         <v>15</v>
@@ -7023,7 +7271,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446">
-        <v>8.8881944173155798</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B446">
         <v>15</v>
@@ -7031,7 +7279,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447">
-        <v>8.4261497731763502</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B447">
         <v>15</v>
@@ -7039,7 +7287,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448">
-        <v>8.7177978870813408</v>
+        <v>8.8881944173155798</v>
       </c>
       <c r="B448">
         <v>15</v>
@@ -7047,7 +7295,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>8.6023252670426196</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B449">
         <v>16</v>
@@ -7055,7 +7303,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>8.2462112512353194</v>
+        <v>8.3666002653407503</v>
       </c>
       <c r="B450">
         <v>16</v>
@@ -7063,7 +7311,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>8.5440037453175304</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="B451">
         <v>16</v>
@@ -7071,7 +7319,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>8.6023252670426196</v>
+        <v>9</v>
       </c>
       <c r="B452">
         <v>16</v>
@@ -7079,7 +7327,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>8.1853527718724504</v>
+        <v>8.1240384046359608</v>
       </c>
       <c r="B453">
         <v>16</v>
@@ -7087,7 +7335,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454">
-        <v>8.6602540378443802</v>
+        <v>9.4339811320565996</v>
       </c>
       <c r="B454">
         <v>16</v>
@@ -7095,7 +7343,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>9</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B455">
         <v>16</v>
@@ -7103,7 +7351,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>8.1853527718724504</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B456">
         <v>16</v>
@@ -7111,7 +7359,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>9.2736184954957004</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B457">
         <v>16</v>
@@ -7119,7 +7367,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>8.4852813742385695</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="B458">
         <v>16</v>
@@ -7127,7 +7375,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459">
-        <v>9.21954445729288</v>
+        <v>8.8881944173155798</v>
       </c>
       <c r="B459">
         <v>16</v>
@@ -7135,7 +7383,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460">
-        <v>8.4852813742385695</v>
+        <v>8.7177978870813408</v>
       </c>
       <c r="B460">
         <v>16</v>
@@ -7143,7 +7391,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>8.0622577482985491</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B461">
         <v>16</v>
@@ -7151,7 +7399,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462">
-        <v>8.2462112512353194</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B462">
         <v>16</v>
@@ -7159,7 +7407,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>8.0622577482985491</v>
+        <v>8.7749643873921208</v>
       </c>
       <c r="B463">
         <v>16</v>
@@ -7167,7 +7415,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464">
-        <v>8.6023252670426196</v>
+        <v>9.1104335791442992</v>
       </c>
       <c r="B464">
         <v>16</v>
@@ -7175,7 +7423,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465">
-        <v>8.7177978870813408</v>
+        <v>9</v>
       </c>
       <c r="B465">
         <v>16</v>
@@ -7183,7 +7431,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466">
-        <v>8</v>
+        <v>8.6023252670426196</v>
       </c>
       <c r="B466">
         <v>16</v>
@@ -7191,7 +7439,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467">
-        <v>8.6023252670426196</v>
+        <v>9.3273790530888103</v>
       </c>
       <c r="B467">
         <v>16</v>
@@ -7199,7 +7447,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468">
-        <v>8.6602540378443802</v>
+        <v>9.5393920141694508</v>
       </c>
       <c r="B468">
         <v>16</v>
@@ -7207,7 +7455,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469">
-        <v>8.4261497731763502</v>
+        <v>8.3066238629180695</v>
       </c>
       <c r="B469">
         <v>16</v>
@@ -7215,7 +7463,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470">
-        <v>8.4852813742385695</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B470">
         <v>16</v>
@@ -7223,7 +7471,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471">
-        <v>9</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B471">
         <v>16</v>
@@ -7231,7 +7479,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472">
-        <v>7.8102496759066504</v>
+        <v>8.8881944173155798</v>
       </c>
       <c r="B472">
         <v>16</v>
@@ -7239,7 +7487,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473">
-        <v>8.6602540378443802</v>
+        <v>8.8881944173155798</v>
       </c>
       <c r="B473">
         <v>16</v>
@@ -7247,7 +7495,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474">
-        <v>7.7459666924148296</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B474">
         <v>16</v>
@@ -7255,7 +7503,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475">
-        <v>8.6602540378443802</v>
+        <v>8.5440037453175304</v>
       </c>
       <c r="B475">
         <v>16</v>
@@ -7263,7 +7511,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476">
-        <v>8.3666002653407503</v>
+        <v>8.6602540378443802</v>
       </c>
       <c r="B476">
         <v>16</v>
@@ -7271,7 +7519,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477">
-        <v>8.3666002653407503</v>
+        <v>8.4261497731763502</v>
       </c>
       <c r="B477">
         <v>16</v>
@@ -7279,7 +7527,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478">
-        <v>8.4261497731763502</v>
+        <v>9.0553851381374102</v>
       </c>
       <c r="B478">
         <v>16</v>
@@ -7287,7 +7535,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479">
-        <v>8.6023252670426196</v>
+        <v>8.9442719099991592</v>
       </c>
       <c r="B479">
         <v>16</v>
@@ -7295,7 +7543,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480">
-        <v>8.6602540378443802</v>
+        <v>9</v>
       </c>
       <c r="B480">
         <v>16</v>

--- a/Standard Minority Game/standard-deviation-vs-memory-size.xlsx
+++ b/Standard Minority Game/standard-deviation-vs-memory-size.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="28800" windowHeight="16900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="sigma vs. m graph" sheetId="2" r:id="rId1"/>
-    <sheet name="sigma vs. m data" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -79,7 +79,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Standard Deviation in Attendance Against Memory Size</a:t>
+              <a:t>Standard Deviation in Attendance against Agent Memory Size</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -87,17 +87,7 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0819267346831526"/>
-          <c:y val="0.099379306162424"/>
-          <c:w val="0.836715373547056"/>
-          <c:h val="0.78706667608055"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -109,18 +99,15 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:ln w="3175"/>
-            </c:spPr>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'sigma vs. m data'!$B:$B</c:f>
+              <c:f>Sheet1!$A$1:$A$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>2.0</c:v>
                 </c:pt>
@@ -1566,1584 +1553,1474 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sigma vs. m data'!$A:$A</c:f>
+              <c:f>Sheet1!$B$1:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>10.6770782520313</c:v>
+                  <c:v>13.18719499367398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.711309200802</c:v>
+                  <c:v>10.74008891727602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.1327459504215</c:v>
+                  <c:v>13.06996858633887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.696938456699</c:v>
+                  <c:v>11.39148315843267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.5646599662505</c:v>
+                  <c:v>12.15082521334813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.4222051018559</c:v>
+                  <c:v>10.45896209854582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.8202749610852</c:v>
+                  <c:v>10.81948374151203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.3178210632763</c:v>
+                  <c:v>11.38714262937487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.0665191733193</c:v>
+                  <c:v>14.08789278182877</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.6095202129184</c:v>
+                  <c:v>12.2701127299891</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0332963783729</c:v>
+                  <c:v>9.753403912931571</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.696938456699</c:v>
+                  <c:v>12.14081506032576</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.1243556529821</c:v>
+                  <c:v>13.44356467991769</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.8743420870379</c:v>
+                  <c:v>10.98485139344241</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.4222051018559</c:v>
+                  <c:v>11.88324286110865</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.7797338380595</c:v>
+                  <c:v>11.14063852490845</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.7898261225515</c:v>
+                  <c:v>12.10374978409103</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.13552872566</c:v>
+                  <c:v>12.14704583766185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.711309200802</c:v>
+                  <c:v>13.19603701492573</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.4536240470737</c:v>
+                  <c:v>12.60710571667641</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.7238052947636</c:v>
+                  <c:v>11.58572585832957</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.5325625946707</c:v>
+                  <c:v>10.86416603565893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.0830459735945</c:v>
+                  <c:v>12.37455594651732</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.6619037896906</c:v>
+                  <c:v>10.75142116446498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.0</c:v>
+                  <c:v>11.91673075332261</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.3288280059379</c:v>
+                  <c:v>11.91936083128046</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.92284798332</c:v>
+                  <c:v>13.21700296878031</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.3440804327886</c:v>
+                  <c:v>11.50832417611419</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.9283882771841</c:v>
+                  <c:v>11.68211675789943</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.8924439894498</c:v>
+                  <c:v>10.16342661330579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.8840987267251</c:v>
+                  <c:v>11.48505983005443</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.856406460551</c:v>
+                  <c:v>12.39739843107359</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.5277492584686</c:v>
+                  <c:v>9.845527158588458</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.8321595661992</c:v>
+                  <c:v>8.356915342601258</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.3288280059379</c:v>
+                  <c:v>9.942204013802227</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.0</c:v>
+                  <c:v>9.267230729648398</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.5698050899765</c:v>
+                  <c:v>7.826117464711159</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.0</c:v>
+                  <c:v>8.766164402053633</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.2287565553229</c:v>
+                  <c:v>9.29073980609802</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.7238052947636</c:v>
+                  <c:v>8.426780985274117</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.9087121146357</c:v>
+                  <c:v>9.682757630423944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.30413469565</c:v>
+                  <c:v>8.533468580161338</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.4498995979887</c:v>
+                  <c:v>8.729653113059378</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.591663046625429</c:v>
+                  <c:v>8.187506920116565</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.3790881602596</c:v>
+                  <c:v>11.07265159396483</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.8062484748656</c:v>
+                  <c:v>9.05159688124753</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12.4899959967967</c:v>
+                  <c:v>8.22928917222064</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.3440804327886</c:v>
+                  <c:v>10.05885657366467</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11.5325625946707</c:v>
+                  <c:v>9.340073417652809</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13.7477270848675</c:v>
+                  <c:v>9.391863348117621</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.4880884817015</c:v>
+                  <c:v>9.212412866078118</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.8321595661992</c:v>
+                  <c:v>7.597100114715831</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.7473401244707</c:v>
+                  <c:v>8.775371471592894</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.79795897113271</c:v>
+                  <c:v>10.39091795548381</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.3693168768529</c:v>
+                  <c:v>9.83754905894495</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.9544511501033</c:v>
+                  <c:v>10.5931259664829</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.48683298050513</c:v>
+                  <c:v>7.622218211324452</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.099504938362</c:v>
+                  <c:v>9.284845642005015</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10.1488915650922</c:v>
+                  <c:v>9.062940847190816</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12.4498995979887</c:v>
+                  <c:v>10.31840278985141</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10.099504938362</c:v>
+                  <c:v>9.742937421176398</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11.8743420870379</c:v>
+                  <c:v>8.889853590452773</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12.5698050899765</c:v>
+                  <c:v>8.035035368269195</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12.0415945787922</c:v>
+                  <c:v>8.827822510960928</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>6.392781438110596</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.770329614269</c:v>
+                  <c:v>5.388778315460132</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>5.320191841853405</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>6.116946367533922</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>6.662771618670724</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>7.181976638700777</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.5830052442583</c:v>
+                  <c:v>5.967311340165104</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.0498756211208</c:v>
+                  <c:v>7.305971220279145</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.8627804912002</c:v>
+                  <c:v>6.103075352056142</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.3440804327886</c:v>
+                  <c:v>5.82337549624073</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.4339811320566</c:v>
+                  <c:v>6.875265662343015</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.2469507659595</c:v>
+                  <c:v>6.976134631401524</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>6.646797122012832</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.9544511501033</c:v>
+                  <c:v>5.761071726227993</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.89949493661166</c:v>
+                  <c:v>6.380194313494531</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.3440804327886</c:v>
+                  <c:v>6.456660226938443</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.74679434480896</c:v>
+                  <c:v>6.405766565722606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.8166538263919</c:v>
+                  <c:v>8.096735806056123</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.2736184954957</c:v>
+                  <c:v>7.8529841898522</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.4880884817015</c:v>
+                  <c:v>6.22931399315227</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.69535971483265</c:v>
+                  <c:v>7.317315064282453</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.64365076099295</c:v>
+                  <c:v>7.74259882362855</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>6.455673908474728</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.79795897113271</c:v>
+                  <c:v>7.800345798710337</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>6.018363524244024</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.4339811320566</c:v>
+                  <c:v>7.096878226942952</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>6.926503779357999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>6.281692660124955</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.32737905308881</c:v>
+                  <c:v>6.27084946361332</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.4339811320566</c:v>
+                  <c:v>6.83965911458168</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>6.727378430864084</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>6.476227598099852</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>2.798771877520957</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>2.90913104110855</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>3.659839645752688</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.48074069840786</c:v>
+                  <c:v>4.306111171270674</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.6157731058639</c:v>
+                  <c:v>3.563692095304393</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>2.650368065965282</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.0</c:v>
+                  <c:v>2.231999019256568</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>2.291644587079629</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>4.204192969388117</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.28010988928051</c:v>
+                  <c:v>2.528302992444198</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.0</c:v>
+                  <c:v>3.986611677510951</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.48331477354788</c:v>
+                  <c:v>2.863879714775408</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>2.388040088345763</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.48331477354788</c:v>
+                  <c:v>3.746243588463308</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>3.557495372777426</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>4.53946849173102</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5.8309518948453</c:v>
+                  <c:v>4.158284320828634</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>3.66782078091719</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>2.003826232974581</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>2.30789327030838</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>7.6157731058639</c:v>
+                  <c:v>3.368160987964222</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>3.639007742192216</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.6157731058639</c:v>
+                  <c:v>2.16528022062814</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>2.175656695852022</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5.91607978309961</c:v>
+                  <c:v>3.499171247587347</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>3.607450813266483</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>2.052945749070073</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>2.797042428107683</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>3.37124521199927</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.0</c:v>
+                  <c:v>3.440977713203353</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>1.951001237975753</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>4.848287773991344</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.8309518948453</c:v>
+                  <c:v>2.568743146781192</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5.91607978309961</c:v>
+                  <c:v>2.79352470689428</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>2.722022272231648</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>2.602967611023728</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6.48074069840786</c:v>
+                  <c:v>2.612767606477161</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>9.2736184954957</c:v>
+                  <c:v>2.644074019906104</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>2.673985486093359</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.0</c:v>
+                  <c:v>2.423846425240114</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5.91607978309961</c:v>
+                  <c:v>2.513274605952282</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>2.440337565736223</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>9.591663046625429</c:v>
+                  <c:v>2.674553426948765</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>2.943191675328624</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>2.715158965663161</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9.0</c:v>
+                  <c:v>2.555984692007072</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6.78232998312526</c:v>
+                  <c:v>2.534719968858931</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6.78232998312526</c:v>
+                  <c:v>2.466817455515478</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6.48074069840786</c:v>
+                  <c:v>2.717461907722345</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>2.795586221212272</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>2.672018302366338</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>2.717369200078828</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>9.2736184954957</c:v>
+                  <c:v>2.615033734035399</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>2.617783275775098</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>2.743084448431941</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>7.48331477354788</c:v>
+                  <c:v>2.432406935598984</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>6.85565460040104</c:v>
+                  <c:v>2.455189001951478</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>2.458283400205799</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>7.28010988928051</c:v>
+                  <c:v>2.603813198813909</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>2.659203686524346</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>2.483100364210408</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>2.401798764203721</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>6.32455532033675</c:v>
+                  <c:v>2.773668912095184</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>8.0</c:v>
+                  <c:v>2.669043877406672</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>9.4339811320566</c:v>
+                  <c:v>3.561889259298973</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>8.944271909999156</c:v>
+                  <c:v>3.283565613828069</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>9.74679434480896</c:v>
+                  <c:v>3.572855401436217</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>10.3923048454132</c:v>
+                  <c:v>3.056014998779829</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>3.231369506090026</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>8.246211251235318</c:v>
+                  <c:v>3.608573294270487</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>8.944271909999156</c:v>
+                  <c:v>3.273587084108127</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>5.29150262212918</c:v>
+                  <c:v>3.23651158668173</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>8.774964387392119</c:v>
+                  <c:v>3.485942945577582</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>3.294719860306147</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>6.0</c:v>
+                  <c:v>3.292344877663853</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>3.118301327697031</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>9.74679434480896</c:v>
+                  <c:v>3.149550996117969</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>3.305554516123699</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>6.16441400296897</c:v>
+                  <c:v>3.331322752470551</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>8.246211251235318</c:v>
+                  <c:v>3.009603032135807</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>5.65685424949238</c:v>
+                  <c:v>3.425685613449104</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>3.486299031651434</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>6.48074069840786</c:v>
+                  <c:v>3.109977155187885</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>3.345400443954787</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>7.0</c:v>
+                  <c:v>3.382146862828444</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>3.297688832373921</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.35889894354067</c:v>
+                  <c:v>3.462852057832869</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>3.215845102919723</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>6.24499799839839</c:v>
+                  <c:v>3.498806442867693</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>3.529247731309728</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>9.48683298050513</c:v>
+                  <c:v>3.3043890038355</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>6.85565460040104</c:v>
+                  <c:v>3.318727502405641</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>9.0</c:v>
+                  <c:v>3.162047729649946</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>10.099504938362</c:v>
+                  <c:v>3.353604941940936</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>8.0</c:v>
+                  <c:v>3.16551978220782</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>3.276625341317303</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>4.018127740011938</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5.74456264653802</c:v>
+                  <c:v>4.03299018855564</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>6.32455532033675</c:v>
+                  <c:v>3.858768219162272</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>7.48331477354788</c:v>
+                  <c:v>3.801923430604178</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>7.48331477354788</c:v>
+                  <c:v>3.772684491821116</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>4.010324358471001</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>9.9498743710662</c:v>
+                  <c:v>3.73049416279797</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>3.983391400641547</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>3.843551753132506</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>3.77729935126126</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>4.033774675637364</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>3.774847819132041</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>9.69535971483265</c:v>
+                  <c:v>3.871261219078677</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>3.982654079047206</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>3.787908075014282</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>9.8488578017961</c:v>
+                  <c:v>3.896148811012687</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>10.099504938362</c:v>
+                  <c:v>4.02843227281503</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>3.864464666511504</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>6.6332495807108</c:v>
+                  <c:v>3.836006543870904</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>9.53939201416945</c:v>
+                  <c:v>4.002027877553246</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>6.85565460040104</c:v>
+                  <c:v>3.930175424569079</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>4.064783467352676</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>9.64365076099295</c:v>
+                  <c:v>3.827419803762762</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>10.099504938362</c:v>
+                  <c:v>3.749648653741116</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>9.69535971483265</c:v>
+                  <c:v>4.009340218901227</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>6.16441400296897</c:v>
+                  <c:v>3.856255730734936</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>10.3923048454132</c:v>
+                  <c:v>3.912318470367832</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>6.557438524302</c:v>
+                  <c:v>3.947187912836403</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>3.835803400693627</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>3.927736587587083</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>3.945071399713159</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>3.929593812438266</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>4.539522521859821</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>4.222646594782307</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>4.517781816915745</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>4.395652616642102</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>4.547791990757616</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>9.4339811320566</c:v>
+                  <c:v>4.34899456948115</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>9.2736184954957</c:v>
+                  <c:v>4.213740062050694</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.490123356966501</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>4.491674287366594</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>4.424725416283016</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.379910309747484</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>4.350637765304813</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.368155587696474</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.64365076099295</c:v>
+                  <c:v>4.556890443608617</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>4.217178988359637</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>4.336362613305255</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>4.417256611925287</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>4.399694812307325</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>9.2736184954957</c:v>
+                  <c:v>4.373438725605826</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>7.28010988928051</c:v>
+                  <c:v>4.270660108668963</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>4.326471226684328</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>10.1980390271855</c:v>
+                  <c:v>4.41676290165693</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>10.5830052442583</c:v>
+                  <c:v>4.426865111280368</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>4.432264488593792</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>4.353726506505594</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>4.51309337386012</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>4.27215450685166</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>10.5830052442583</c:v>
+                  <c:v>4.274211936575909</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>9.69535971483265</c:v>
+                  <c:v>4.387920520548379</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7.0</c:v>
+                  <c:v>4.419753235404212</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>4.282282067305963</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>9.89949493661166</c:v>
+                  <c:v>4.617485991065671</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>4.657776366257614</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>4.784774662077274</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>9.64365076099295</c:v>
+                  <c:v>4.773539578552897</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>4.641176924264386</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>4.751510320417323</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.73663248719297</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7.07106781186547</c:v>
+                  <c:v>4.739984634514494</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>4.621661861910359</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>4.674143929335858</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>9.0</c:v>
+                  <c:v>4.708071532353298</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>4.654854297059434</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>4.787007685836583</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>4.664653219582994</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>6.85565460040104</c:v>
+                  <c:v>4.84995218570455</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>4.69550617269553</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>4.67016469557856</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>9.2736184954957</c:v>
+                  <c:v>4.762318133787464</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>7.34846922834953</c:v>
+                  <c:v>4.791562470331646</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>7.14142842854285</c:v>
+                  <c:v>4.669021462377473</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>4.691172210617625</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>4.786046566235392</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>9.69535971483265</c:v>
+                  <c:v>4.683089228540538</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>9.64365076099295</c:v>
+                  <c:v>4.723142885608247</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>4.864422120895451</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>4.719201716019753</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>9.591663046625429</c:v>
+                  <c:v>4.632830809789109</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.70137776138926</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>4.725528383350409</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>4.708574818103858</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>4.527195643004515</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>7.6157731058639</c:v>
+                  <c:v>4.700999647922674</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>4.558758969098268</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>4.862269491344616</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>4.824762599694853</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>4.910324722346564</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>4.77666474044435</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>7.28010988928051</c:v>
+                  <c:v>4.786094703435258</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>4.740528057149968</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>4.940857942475245</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>4.852086506271952</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>4.916040139692256</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>7.21110255092797</c:v>
+                  <c:v>4.84245649422788</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>4.758576929654453</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>9.69535971483265</c:v>
+                  <c:v>4.769762847748541</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>9.48683298050513</c:v>
+                  <c:v>4.957384787001372</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>9.48683298050513</c:v>
+                  <c:v>4.836868854954836</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>4.852967430272746</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>9.0</c:v>
+                  <c:v>4.875590156887442</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.84041861880153</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>9.2736184954957</c:v>
+                  <c:v>4.907402724471464</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>4.788435062839976</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>9.38083151964686</c:v>
+                  <c:v>4.852413306952565</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>4.952431904446211</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.925306838639141</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>4.852194734279918</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>9.69535971483265</c:v>
+                  <c:v>4.804436056456794</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>4.914933535376199</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>4.960037483445432</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>4.811747928956088</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>4.861857883176728</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>7.41619848709566</c:v>
+                  <c:v>5.040352959445971</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>4.89965180587169</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>4.816029802057448</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>9.21954445729288</c:v>
+                  <c:v>4.914094278934653</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.948996420139814</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.985995106768622</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>4.965354351341233</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>4.94720246616449</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>4.952099215349373</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>4.977841962242296</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>4.902335252621249</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>4.93722027100276</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>4.907606566364201</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>4.887758997618613</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>4.957202802585598</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.871218187133754</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>4.877966650753644</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.963522097781118</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>7.6811457478686</c:v>
+                  <c:v>4.943368430447383</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>5.048084776030457</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>5.03264840764777</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>5.030951679104039</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>4.97484420032243</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>5.004208006246055</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>4.875561107155883</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>7.74596669241483</c:v>
+                  <c:v>4.94551197034895</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>5.034847100809814</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>4.945836758337672</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.907941969852335</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>4.933125901810787</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.973912251971172</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>4.938849089923007</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>4.983149033234783</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>9.32737905308881</c:v>
+                  <c:v>4.85371414116</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>4.929189455769477</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>4.939936506400528</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>5.007730516560625</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.968688964606542</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>4.987999278636714</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>5.028505918976088</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>5.035343008963916</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>5.042278211974885</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>5.015729234515678</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>4.966653541846922</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>5.043276737799093</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>5.021963552415752</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>8.0</c:v>
+                  <c:v>4.965612124439127</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>4.989572524114402</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>4.96961269567706</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>4.976152349880471</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>5.043633394070324</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>9.32737905308881</c:v>
+                  <c:v>4.961744496731463</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>4.998315322746917</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>4.95914126620826</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>5.006248576776965</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>4.923131648912419</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>4.974374013851704</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>4.953045008425185</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.992680109467007</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>4.930365134555028</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>4.960301221581293</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>4.927194565331128</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>5.025017058642072</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>4.975300787067265</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.921819698131386</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>4.996445337097223</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>4.972145571396561</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>4.944987360954526</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>4.963453913100714</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>4.946653048035376</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>4.982349193939453</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>5.032882771424271</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>8.0</c:v>
+                  <c:v>4.894357872479129</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>4.952432272988871</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>4.958153107581894</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>4.979536055490778</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>5.028676950171567</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>4.953824082191843</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>5.017135788988837</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>4.98936402513763</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>5.057324941464256</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>5.05344984397121</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>4.97463553437534</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>5.013955760199394</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>5.05940269849778</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>4.993941074416643</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>5.003607455502172</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>5.012119561048924</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.992148651113601</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>5.075758793789696</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>7.54983443527075</c:v>
+                  <c:v>4.961710294536006</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>4.96879764983528</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>7.81024967590665</c:v>
+                  <c:v>5.039763652371722</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>4.999867816034533</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>5.049961371236924</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>9.38083151964686</c:v>
+                  <c:v>5.017464328206881</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>5.040151691458044</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>8.246211251235319</c:v>
+                  <c:v>4.961045565937769</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>5.091267635924677</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>4.977270754380998</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>5.020808162184664</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>4.915096220531773</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>4.970378212566691</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>5.002074573115</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>5.016163731364628</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>9.16515138991168</c:v>
+                  <c:v>5.020777383090504</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>4.983038528578477</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>4.948216681273404</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>5.059811491472094</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>5.09666804025054</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>5.066268811262067</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>5.07480309003614</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>5.013703693126688</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>5.091555784240256</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>7.93725393319377</c:v>
+                  <c:v>5.034803369000276</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>4.997589674058402</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>4.98707848396039</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>8.83176086632784</c:v>
+                  <c:v>5.017605288011682</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>5.033738332706653</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>5.023041377937123</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>5.02634961170052</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>5.005952827022114</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>5.034668452702986</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>9.0</c:v>
+                  <c:v>5.047020729284185</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>8.18535277187245</c:v>
+                  <c:v>5.054848399233541</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>7.87400787401181</c:v>
+                  <c:v>5.079229800622998</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>4.969178937604406</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>4.968890276214378</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>5.089991511914236</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>5.037214936195525</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>4.9706085195784</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>5.027915789242916</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>4.933115263463859</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>8.36660026534075</c:v>
+                  <c:v>4.977165354646825</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>8.48528137423857</c:v>
+                  <c:v>5.014130223696843</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>9.0</c:v>
+                  <c:v>4.99496742831832</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>8.124038404635961</c:v>
+                  <c:v>4.951032116832006</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>9.4339811320566</c:v>
+                  <c:v>5.009097952349265</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.990671850618128</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>5.063400970981801</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>5.065411595266768</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>8.06225774829855</c:v>
+                  <c:v>5.011602059772947</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>5.054574623295457</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>8.71779788708134</c:v>
+                  <c:v>5.029396787210613</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>5.022584358212752</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>5.02569980458965</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>8.774964387392121</c:v>
+                  <c:v>5.063400844571895</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>9.1104335791443</c:v>
+                  <c:v>5.038294203482756</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>9.0</c:v>
+                  <c:v>5.004637344453125</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>8.60232526704262</c:v>
+                  <c:v>5.062400670635912</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>9.32737905308881</c:v>
+                  <c:v>5.023337873599509</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>9.53939201416945</c:v>
+                  <c:v>5.038661369931516</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>8.30662386291807</c:v>
+                  <c:v>5.085168014271827</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>5.040126970423244</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.984407486532293</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>5.009124471681384</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>8.88819441731558</c:v>
+                  <c:v>4.980284593621462</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>5.03035267499244</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>8.54400374531753</c:v>
+                  <c:v>5.012900984223385</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>8.66025403784438</c:v>
+                  <c:v>5.073019151583332</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>8.42614977317635</c:v>
+                  <c:v>4.963284087063016</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>9.05538513813741</c:v>
+                  <c:v>4.99185296454152</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>8.944271909999159</c:v>
+                  <c:v>5.020510960353569</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>9.0</c:v>
+                  <c:v>4.962042138698403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'sigma vs. m data'!$C$1:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'sigma vs. m data'!$D$1:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>13.19370760870093</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.67890334113732</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.520545480642722</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.503614361931985</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.539932556765547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.07541264560136</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.26070253127689</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.566783159580833</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.427295045311109</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.50671995190408</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.525495472295354</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.520470220954381</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.588798918792143</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.56221339881491</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.786022941839837</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="631767816"/>
-        <c:axId val="612943128"/>
+        <c:axId val="519698424"/>
+        <c:axId val="519224888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="631767816"/>
+        <c:axId val="519698424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="18.0"/>
-          <c:min val="0.0"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3151,17 +3028,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-GB"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Memory</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory Size, m</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Size, m</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3169,46 +3041,52 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="612943128"/>
+        <c:crossAx val="519224888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.0"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="612943128"/>
+        <c:axId val="519224888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20.0"/>
         </c:scaling>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-GB"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Standard</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Standard Deviation in Attendance, σ</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Deviation in Attendance of Choice A</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3216,25 +3094,24 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="631767816"/>
+        <c:crossAx val="519698424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3242,9 +3119,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -3253,7 +3131,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9209924" cy="5622901"/>
+    <xdr:ext cx="9214662" cy="5624286"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3274,6 +3152,67 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07047</cdr:x>
+      <cdr:y>0.6146</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97824</cdr:x>
+      <cdr:y>0.61488</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="649323" y="3456692"/>
+          <a:ext cx="8364812" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3596,1197 +3535,1092 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:B480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="E480" sqref="E480"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1">
-        <v>10.677078252031301</v>
+        <v>2</v>
       </c>
       <c r="B1">
+        <v>13.187194993673982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="B2">
+        <v>10.740088917276015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1">
-        <f>AVERAGE(A1:A32)</f>
-        <v>13.193707608700933</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>13.711309200802001</v>
-      </c>
-      <c r="B2">
+      <c r="B3">
+        <v>13.06996858633887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <f>AVERAGE(A33:A64)</f>
-        <v>11.678903341137318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>15.1327459504215</v>
-      </c>
-      <c r="B3">
+      <c r="B4">
+        <v>11.391483158432665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <f>AVERAGE(A65:A96)</f>
-        <v>9.5205454806427223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>14.696938456699</v>
-      </c>
-      <c r="B4">
+      <c r="B5">
+        <v>12.150825213348128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <f>AVERAGE(A97:A128)</f>
-        <v>7.5036143619319846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>13.564659966250501</v>
-      </c>
-      <c r="B5">
+      <c r="B6">
+        <v>10.458962098545818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGE(A129:A160)</f>
-        <v>7.5399325567655469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>14.4222051018559</v>
-      </c>
-      <c r="B6">
+      <c r="B7">
+        <v>10.819483741512032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <f>AVERAGE(A161:A192)</f>
-        <v>8.0754126456013591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>13.8202749610852</v>
-      </c>
-      <c r="B7">
+      <c r="B8">
+        <v>11.387142629374866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f>AVERAGE(A193:A224)</f>
-        <v>8.2607025312768894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>14.3178210632763</v>
-      </c>
-      <c r="B8">
+      <c r="B9">
+        <v>14.087892781828769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <f>AVERAGE(A225:A256)</f>
-        <v>8.566783159580833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>15.0665191733193</v>
-      </c>
-      <c r="B9">
+      <c r="B10">
+        <v>12.270112729989098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <f>AVERAGE(A257:A288)</f>
-        <v>8.4272950453111086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>12.609520212918399</v>
-      </c>
-      <c r="B10">
+      <c r="B11">
+        <v>9.7534039129315708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <f>AVERAGE(A289:A320)</f>
-        <v>8.5067199519040813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>15.033296378372899</v>
-      </c>
-      <c r="B11">
+      <c r="B12">
+        <v>12.14081506032576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <f>AVERAGE(A321:A352)</f>
-        <v>8.5254954722953542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>14.696938456699</v>
-      </c>
-      <c r="B12">
+      <c r="B13">
+        <v>13.443564679917685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <f>AVERAGE(A353:A384)</f>
-        <v>8.5204702209543814</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12.1243556529821</v>
-      </c>
-      <c r="B13">
+      <c r="B14">
+        <v>10.984851393442407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <f>AVERAGE(A385:A416)</f>
-        <v>8.5887989187921434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>11.874342087037901</v>
-      </c>
-      <c r="B14">
+      <c r="B15">
+        <v>11.88324286110865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <f>AVERAGE(A417:A448)</f>
-        <v>8.5622133988149098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14.4222051018559</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <f>AVERAGE(A449:A480)</f>
-        <v>8.7860229418398372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15.779733838059499</v>
-      </c>
       <c r="B16">
-        <v>2</v>
+        <v>11.140638524908447</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>11.789826122551499</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>12.103749784091027</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>11.13552872566</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>12.147045837661851</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>13.711309200802001</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>13.19603701492573</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>13.453624047073699</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>12.607105716676413</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>10.723805294763601</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>11.585725858329575</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>11.532562594670701</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>10.864166035658929</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>12.0830459735945</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>12.37455594651732</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>11.6619037896906</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>10.751421164464979</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>11.916730753322607</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>12.328828005937901</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>11.919360831280459</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>12.922847983320001</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>13.21700296878031</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>10.3440804327886</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>11.50832417611419</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>13.9283882771841</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>11.682116757899427</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>13.8924439894498</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>10.163426613305788</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>12.884098726725099</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>11.485059830054428</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>13.856406460551</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>12.397398431073588</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>13.527749258468599</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>9.8455271585884585</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>11.8321595661992</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>8.3569153426012583</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>12.328828005937901</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>9.9422040138022272</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>9.2672307296483982</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>12.5698050899765</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>7.8261174647111593</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>8.7661644020536329</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>13.228756555322899</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>9.2907398060980206</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>10.723805294763601</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>8.4267809852741173</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>10.9087121146357</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>9.6827576304239447</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>13.304134695649999</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>8.5334685801613386</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>12.449899597988701</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>8.7296531130593777</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>9.5916630466254293</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>8.1875069201165651</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>13.379088160259601</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>11.072651593964833</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>12.806248474865599</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>9.05159688124753</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>12.489995996796701</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>8.2292891722206392</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>10.3440804327886</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>10.058856573664672</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>11.532562594670701</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>9.3400734176528086</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>13.747727084867501</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>9.3918633481176208</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>10.488088481701499</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>9.2124128660781182</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>11.8321595661992</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>7.5971001147158308</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>11.7473401244707</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>8.7753714715928943</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>9.7979589711327097</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>10.390917955483815</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>12.369316876852899</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>9.8375490589449512</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>10.954451150103299</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>10.593125966482901</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>9.4868329805051292</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>7.6222182113244523</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>10.099504938361999</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>9.2848456420050152</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>10.1488915650922</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>9.0629408471908164</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>12.449899597988701</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>10.318402789851406</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>10.099504938361999</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>9.7429374211763982</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>11.874342087037901</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>8.8898535904527733</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>12.5698050899765</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>8.0350353682691953</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>12.0415945787922</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>8.8278225109609281</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>8.6023252670426196</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>6.3927814381105961</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>10.770329614269</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>5.3887783154601321</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>8.7749643873921208</v>
+        <v>4</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>5.3201918418534051</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>9.0553851381374102</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6.116946367533922</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>8.5440037453175304</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>6.6627716186707238</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>9.0553851381374102</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>7.1819766387007773</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>10.583005244258301</v>
+        <v>4</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>5.9673113401651037</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>10.049875621120799</v>
+        <v>4</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>7.3059712202791447</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>10.8627804912002</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>6.103075352056142</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>10.3440804327886</v>
+        <v>4</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>5.8233754962407298</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>9.4339811320565996</v>
+        <v>4</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>6.8752656623430157</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>10.2469507659595</v>
+        <v>4</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>6.976134631401524</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7.8740078740118102</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>6.646797122012833</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>10.954451150103299</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>5.7610717262279936</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>9.89949493661166</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>6.3801943134945311</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>10.3440804327886</v>
+        <v>4</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>6.4566602269384434</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>9.7467943448089596</v>
+        <v>4</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>6.4057665657226064</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>10.816653826391899</v>
+        <v>4</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>8.0967358060561239</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>9.2736184954957004</v>
+        <v>4</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>7.8529841898521999</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>10.488088481701499</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>6.2293139931522701</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>9.6953597148326498</v>
+        <v>4</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>7.3173150642824529</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>9.6436507609929496</v>
+        <v>4</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>7.7425988236285503</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>8.6602540378443802</v>
+        <v>4</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>6.4556739084747283</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>9.7979589711327097</v>
+        <v>4</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>7.800345798710338</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>8.8317608663278406</v>
+        <v>4</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>6.0183635242440241</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>9.4339811320565996</v>
+        <v>4</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>7.0968782269429518</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>8.4261497731763502</v>
+        <v>4</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>6.9265037793579989</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>8.7177978870813408</v>
+        <v>4</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6.2816926601249552</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>9.3273790530888103</v>
+        <v>4</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>6.2708494636133221</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>9.4339811320565996</v>
+        <v>4</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>6.8396591145816821</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>8.3666002653407503</v>
+        <v>4</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>6.7273784308640838</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>8.6023252670426196</v>
+        <v>4</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>6.476227598099852</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>7.5498344352707498</v>
+        <v>5</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>2.798771877520958</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>7.7459666924148296</v>
+        <v>5</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>2.9091310411085498</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>8.1240384046359608</v>
+        <v>5</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>3.6598396457526885</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>6.4807406984078604</v>
+        <v>5</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>4.3061111712706737</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>7.6157731058638998</v>
+        <v>5</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>3.5636920953043929</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>8.1853527718724504</v>
+        <v>5</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>2.6503680659652824</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>2.2319990192565684</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>7.7459666924148296</v>
+        <v>5</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>2.2916445870796291</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>7.6811457478685998</v>
+        <v>5</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>4.2041929693881173</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>7.2801098892805101</v>
+        <v>5</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>2.528302992444198</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>3.9866116775109512</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>7.48331477354788</v>
+        <v>5</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>2.863879714775408</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>7.5498344352707498</v>
+        <v>5</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>2.3880400883457633</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>7.48331477354788</v>
+        <v>5</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>3.7462435884633081</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>7.8740078740118102</v>
+        <v>5</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>3.5574953727774257</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>7.5498344352707498</v>
+        <v>5</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>4.5394684917310206</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>5.8309518948452999</v>
+        <v>5</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>4.158284320828634</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>7.0710678118654702</v>
+        <v>5</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>3.6678207809171899</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>7.4161984870956603</v>
+        <v>5</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>2.0038262329745806</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>7.8102496759066504</v>
+        <v>5</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>2.3078932703083797</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>7.6157731058638998</v>
+        <v>5</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>3.368160987964222</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>8.3066238629180695</v>
+        <v>5</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>3.6390077421922165</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>7.6157731058638998</v>
+        <v>5</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>2.1652802206281403</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>7.5498344352707498</v>
+        <v>5</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>2.1756566958520223</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>5.9160797830996099</v>
+        <v>5</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>3.4991712475873475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>7.1414284285428504</v>
+        <v>5</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>3.6074508132664835</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>7.8102496759066504</v>
+        <v>5</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>2.0529457490700733</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>7.5498344352707498</v>
+        <v>5</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>2.7970424281076829</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>8.1240384046359608</v>
+        <v>5</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>3.3712452119992702</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>3.440977713203353</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>7.0710678118654702</v>
+        <v>5</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>1.9510012379757533</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>7.9372539331937704</v>
+        <v>5</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>4.8482877739913439</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>5.8309518948452999</v>
+        <v>6</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>2.5687431467811925</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>5.9160797830996099</v>
+        <v>6</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>2.7935247068942792</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>7.4161984870956603</v>
+        <v>6</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>2.7220222722316478</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>8.5440037453175304</v>
+        <v>6</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>2.6029676110237276</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>6.4807406984078604</v>
+        <v>6</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>2.6127676064771608</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>9.2736184954957004</v>
+        <v>6</v>
       </c>
       <c r="B134">
-        <v>6</v>
+        <v>2.6440740199061041</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>7.9372539331937704</v>
+        <v>6</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>2.6739854860933594</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4794,359 +4628,359 @@
         <v>6</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>2.423846425240114</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>5.9160797830996099</v>
+        <v>6</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>2.5132746059522821</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>7.1414284285428504</v>
+        <v>6</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>2.4403375657362232</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>9.5916630466254293</v>
+        <v>6</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>2.6745534269487652</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>8.1240384046359608</v>
+        <v>6</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>2.9431916753286238</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>7.1414284285428504</v>
+        <v>6</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>2.7151589656631612</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>2.5559846920070717</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>6.7823299831252601</v>
+        <v>6</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>2.5347199688589312</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>6.7823299831252601</v>
+        <v>6</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>2.466817455515478</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>6.4807406984078604</v>
+        <v>6</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>2.717461907722345</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>7.7459666924148296</v>
+        <v>6</v>
       </c>
       <c r="B146">
-        <v>6</v>
+        <v>2.7955862212122722</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>8.4852813742385695</v>
+        <v>6</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>2.6720183023663382</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>7.2111025509279703</v>
+        <v>6</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>2.7173692000788283</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>9.2736184954957004</v>
+        <v>6</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>2.6150337340353991</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>8.1240384046359608</v>
+        <v>6</v>
       </c>
       <c r="B150">
-        <v>6</v>
+        <v>2.6177832757750981</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>7.2111025509279703</v>
+        <v>6</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>2.7430844484319419</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>7.48331477354788</v>
+        <v>6</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>2.4324069355989839</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>6.8556546004010404</v>
+        <v>6</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>2.4551890019514779</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>8.2462112512353194</v>
+        <v>6</v>
       </c>
       <c r="B154">
-        <v>6</v>
+        <v>2.4582834002057994</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>7.2801098892805101</v>
+        <v>6</v>
       </c>
       <c r="B155">
-        <v>6</v>
+        <v>2.6038131988139086</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>8.5440037453175304</v>
+        <v>6</v>
       </c>
       <c r="B156">
-        <v>6</v>
+        <v>2.659203686524346</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>7.4161984870956603</v>
+        <v>6</v>
       </c>
       <c r="B157">
-        <v>6</v>
+        <v>2.4831003642104084</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>8.7177978870813408</v>
+        <v>6</v>
       </c>
       <c r="B158">
-        <v>6</v>
+        <v>2.4017987642037206</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>6.3245553203367502</v>
+        <v>6</v>
       </c>
       <c r="B159">
-        <v>6</v>
+        <v>2.7736689120951845</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>2.6690438774066725</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>9.4339811320565996</v>
+        <v>7</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>3.5618892592989733</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>8.9442719099991557</v>
+        <v>7</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>3.2835656138280687</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>9.7467943448089596</v>
+        <v>7</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>3.5728554014362173</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>10.3923048454132</v>
+        <v>7</v>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>3.0560149987798289</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>8.4261497731763502</v>
+        <v>7</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>3.2313695060900258</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>8.2462112512353176</v>
+        <v>7</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>3.6085732942704869</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>8.9442719099991557</v>
+        <v>7</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>3.2735870841081272</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>5.2915026221291797</v>
+        <v>7</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>3.2365115866817296</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>8.774964387392119</v>
+        <v>7</v>
       </c>
       <c r="B169">
-        <v>7</v>
+        <v>3.4859429455775821</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>8.7177978870813408</v>
+        <v>7</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>3.2947198603061469</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B171">
-        <v>7</v>
+        <v>3.2923448776638531</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>8.6023252670426196</v>
+        <v>7</v>
       </c>
       <c r="B172">
-        <v>7</v>
+        <v>3.1183013276970311</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>9.7467943448089596</v>
+        <v>7</v>
       </c>
       <c r="B173">
-        <v>7</v>
+        <v>3.1495509961179686</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>8.6023252670426196</v>
+        <v>7</v>
       </c>
       <c r="B174">
-        <v>7</v>
+        <v>3.3055545161236992</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>6.1644140029689698</v>
+        <v>7</v>
       </c>
       <c r="B175">
-        <v>7</v>
+        <v>3.3313227524705513</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>8.2462112512353176</v>
+        <v>7</v>
       </c>
       <c r="B176">
-        <v>7</v>
+        <v>3.0096030321358072</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>5.6568542494923797</v>
+        <v>7</v>
       </c>
       <c r="B177">
-        <v>7</v>
+        <v>3.4256856134491036</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>8.5440037453175304</v>
+        <v>7</v>
       </c>
       <c r="B178">
-        <v>7</v>
+        <v>3.4862990316514337</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>6.4807406984078604</v>
+        <v>7</v>
       </c>
       <c r="B179">
-        <v>7</v>
+        <v>3.1099771551878845</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>8.4261497731763502</v>
+        <v>7</v>
       </c>
       <c r="B180">
-        <v>7</v>
+        <v>3.3454004439547869</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5154,2404 +4988,2406 @@
         <v>7</v>
       </c>
       <c r="B181">
-        <v>7</v>
+        <v>3.3821468628284439</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>8.6023252670426196</v>
+        <v>7</v>
       </c>
       <c r="B182">
-        <v>7</v>
+        <v>3.2976888323739213</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>4.3588989435406704</v>
+        <v>7</v>
       </c>
       <c r="B183">
-        <v>7</v>
+        <v>3.462852057832869</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>9.0553851381374102</v>
+        <v>7</v>
       </c>
       <c r="B184">
-        <v>7</v>
+        <v>3.2158451029197228</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>6.2449979983983903</v>
+        <v>7</v>
       </c>
       <c r="B185">
-        <v>7</v>
+        <v>3.4988064428676928</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>7.2111025509279703</v>
+        <v>7</v>
       </c>
       <c r="B186">
-        <v>7</v>
+        <v>3.5292477313097277</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>9.4868329805051292</v>
+        <v>7</v>
       </c>
       <c r="B187">
-        <v>7</v>
+        <v>3.3043890038354991</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>6.8556546004010404</v>
+        <v>7</v>
       </c>
       <c r="B188">
-        <v>7</v>
+        <v>3.3187275024056415</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B189">
-        <v>7</v>
+        <v>3.1620477296499461</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>10.099504938361999</v>
+        <v>7</v>
       </c>
       <c r="B190">
-        <v>7</v>
+        <v>3.3536049419409366</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B191">
-        <v>7</v>
+        <v>3.1655197822078205</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>9.1104335791443027</v>
+        <v>7</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>3.2766253413173034</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>9.1104335791442992</v>
+        <v>8</v>
       </c>
       <c r="B193">
-        <v>8</v>
+        <v>4.0181277400119377</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>5.7445626465380197</v>
+        <v>8</v>
       </c>
       <c r="B194">
-        <v>8</v>
+        <v>4.0329901885556394</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>6.3245553203367502</v>
+        <v>8</v>
       </c>
       <c r="B195">
-        <v>8</v>
+        <v>3.8587682191622719</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>7.48331477354788</v>
+        <v>8</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>3.801923430604178</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>7.48331477354788</v>
+        <v>8</v>
       </c>
       <c r="B197">
-        <v>8</v>
+        <v>3.7726844918211158</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>8.1240384046359608</v>
+        <v>8</v>
       </c>
       <c r="B198">
-        <v>8</v>
+        <v>4.0103243584710011</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>9.9498743710661994</v>
+        <v>8</v>
       </c>
       <c r="B199">
-        <v>8</v>
+        <v>3.73049416279797</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>7.3484692283495301</v>
+        <v>8</v>
       </c>
       <c r="B200">
-        <v>8</v>
+        <v>3.9833914006415472</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>8.9442719099991592</v>
+        <v>8</v>
       </c>
       <c r="B201">
-        <v>8</v>
+        <v>3.8435517531325067</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>8.0622577482985491</v>
+        <v>8</v>
       </c>
       <c r="B202">
-        <v>8</v>
+        <v>3.7772993512612594</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>9.1104335791442992</v>
+        <v>8</v>
       </c>
       <c r="B203">
-        <v>8</v>
+        <v>4.033774675637364</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>7.0710678118654702</v>
+        <v>8</v>
       </c>
       <c r="B204">
-        <v>8</v>
+        <v>3.7748478191320407</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>9.6953597148326498</v>
+        <v>8</v>
       </c>
       <c r="B205">
-        <v>8</v>
+        <v>3.8712612190786766</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>8.6023252670426196</v>
+        <v>8</v>
       </c>
       <c r="B206">
-        <v>8</v>
+        <v>3.9826540790472058</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>8.1240384046359608</v>
+        <v>8</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>3.7879080750142822</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>9.8488578017961004</v>
+        <v>8</v>
       </c>
       <c r="B208">
-        <v>8</v>
+        <v>3.8961488110126874</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>10.099504938361999</v>
+        <v>8</v>
       </c>
       <c r="B209">
-        <v>8</v>
+        <v>4.0284322728150297</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>8.8317608663278406</v>
+        <v>8</v>
       </c>
       <c r="B210">
-        <v>8</v>
+        <v>3.8644646665115041</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>6.6332495807107996</v>
+        <v>8</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>3.8360065438709037</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>9.5393920141694508</v>
+        <v>8</v>
       </c>
       <c r="B212">
-        <v>8</v>
+        <v>4.0020278775532461</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>6.8556546004010404</v>
+        <v>8</v>
       </c>
       <c r="B213">
-        <v>8</v>
+        <v>3.9301754245690788</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>8.1240384046359608</v>
+        <v>8</v>
       </c>
       <c r="B214">
-        <v>8</v>
+        <v>4.0647834673526759</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>9.6436507609929496</v>
+        <v>8</v>
       </c>
       <c r="B215">
-        <v>8</v>
+        <v>3.8274198037627616</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>10.099504938361999</v>
+        <v>8</v>
       </c>
       <c r="B216">
-        <v>8</v>
+        <v>3.7496486537411164</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>9.6953597148326498</v>
+        <v>8</v>
       </c>
       <c r="B217">
-        <v>8</v>
+        <v>4.0093402189012277</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>6.1644140029689698</v>
+        <v>8</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>3.8562557307349361</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>10.3923048454132</v>
+        <v>8</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>3.9123184703678322</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>6.5574385243020004</v>
+        <v>8</v>
       </c>
       <c r="B220">
-        <v>8</v>
+        <v>3.9471879128364038</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>7.5498344352707498</v>
+        <v>8</v>
       </c>
       <c r="B221">
-        <v>8</v>
+        <v>3.8358034006936266</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>8.3066238629180695</v>
+        <v>8</v>
       </c>
       <c r="B222">
-        <v>8</v>
+        <v>3.9277365875870838</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>7.1414284285428504</v>
+        <v>8</v>
       </c>
       <c r="B223">
-        <v>8</v>
+        <v>3.945071399713159</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>7.6811457478685998</v>
+        <v>8</v>
       </c>
       <c r="B224">
-        <v>8</v>
+        <v>3.9295938124382657</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>8.9442719099991592</v>
+        <v>9</v>
       </c>
       <c r="B225">
-        <v>9</v>
+        <v>4.5395225218598219</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>7.8740078740118102</v>
+        <v>9</v>
       </c>
       <c r="B226">
-        <v>9</v>
+        <v>4.222646594782308</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>8.8881944173155798</v>
+        <v>9</v>
       </c>
       <c r="B227">
-        <v>9</v>
+        <v>4.5177818169157451</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>7.3484692283495301</v>
+        <v>9</v>
       </c>
       <c r="B228">
-        <v>9</v>
+        <v>4.3956526166421019</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>8.3666002653407503</v>
+        <v>9</v>
       </c>
       <c r="B229">
-        <v>9</v>
+        <v>4.5477919907576165</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>9.4339811320565996</v>
+        <v>9</v>
       </c>
       <c r="B230">
-        <v>9</v>
+        <v>4.3489945694811505</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>9.2736184954957004</v>
+        <v>9</v>
       </c>
       <c r="B231">
-        <v>9</v>
+        <v>4.2137400620506948</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>9.0553851381374102</v>
+        <v>9</v>
       </c>
       <c r="B232">
-        <v>9</v>
+        <v>4.4901233569665013</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>7.3484692283495301</v>
+        <v>9</v>
       </c>
       <c r="B233">
-        <v>9</v>
+        <v>4.4916742873665942</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>7.8740078740118102</v>
+        <v>9</v>
       </c>
       <c r="B234">
-        <v>9</v>
+        <v>4.4247254162830165</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>8.6602540378443802</v>
+        <v>9</v>
       </c>
       <c r="B235">
-        <v>9</v>
+        <v>4.3799103097474843</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>7.4161984870956603</v>
+        <v>9</v>
       </c>
       <c r="B236">
-        <v>9</v>
+        <v>4.3506377653048132</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>8.6602540378443802</v>
+        <v>9</v>
       </c>
       <c r="B237">
-        <v>9</v>
+        <v>4.3681555876964744</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>9.6436507609929496</v>
+        <v>9</v>
       </c>
       <c r="B238">
-        <v>9</v>
+        <v>4.5568904436086175</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>8.3066238629180695</v>
+        <v>9</v>
       </c>
       <c r="B239">
-        <v>9</v>
+        <v>4.2171789883596373</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>7.0710678118654702</v>
+        <v>9</v>
       </c>
       <c r="B240">
-        <v>9</v>
+        <v>4.3363626133052557</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>7.8102496759066504</v>
+        <v>9</v>
       </c>
       <c r="B241">
-        <v>9</v>
+        <v>4.4172566119252874</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>8.9442719099991592</v>
+        <v>9</v>
       </c>
       <c r="B242">
-        <v>9</v>
+        <v>4.3996948123073256</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>9.2736184954957004</v>
+        <v>9</v>
       </c>
       <c r="B243">
-        <v>9</v>
+        <v>4.3734387256058262</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>7.2801098892805101</v>
+        <v>9</v>
       </c>
       <c r="B244">
-        <v>9</v>
+        <v>4.2706601086689631</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>8.5440037453175304</v>
+        <v>9</v>
       </c>
       <c r="B245">
-        <v>9</v>
+        <v>4.3264712266843279</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>10.1980390271855</v>
+        <v>9</v>
       </c>
       <c r="B246">
-        <v>9</v>
+        <v>4.4167629016569299</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>10.583005244258301</v>
+        <v>9</v>
       </c>
       <c r="B247">
-        <v>9</v>
+        <v>4.4268651112803683</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>8.0622577482985491</v>
+        <v>9</v>
       </c>
       <c r="B248">
-        <v>9</v>
+        <v>4.432264488593793</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>7.9372539331937704</v>
+        <v>9</v>
       </c>
       <c r="B249">
-        <v>9</v>
+        <v>4.3537265065055939</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>7.5498344352707498</v>
+        <v>9</v>
       </c>
       <c r="B250">
-        <v>9</v>
+        <v>4.5130933738601193</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>8.1853527718724504</v>
+        <v>9</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>4.2721545068516598</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>10.583005244258301</v>
+        <v>9</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>4.2742119365759095</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>9.6953597148326498</v>
+        <v>9</v>
       </c>
       <c r="B253">
-        <v>9</v>
+        <v>4.3879205205483789</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B254">
-        <v>9</v>
+        <v>4.4197532354042126</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>8.4261497731763502</v>
+        <v>9</v>
       </c>
       <c r="B255">
-        <v>9</v>
+        <v>4.2822820673059629</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>9.89949493661166</v>
+        <v>9</v>
       </c>
       <c r="B256">
-        <v>9</v>
+        <v>4.6174859910656716</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>8.6023252670426196</v>
+        <v>10</v>
       </c>
       <c r="B257">
-        <v>10</v>
+        <v>4.6577763662576137</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>8.1240384046359608</v>
+        <v>10</v>
       </c>
       <c r="B258">
-        <v>10</v>
+        <v>4.7847746620772744</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>9.6436507609929496</v>
+        <v>10</v>
       </c>
       <c r="B259">
-        <v>10</v>
+        <v>4.7735395785528967</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>8.5440037453175304</v>
+        <v>10</v>
       </c>
       <c r="B260">
-        <v>10</v>
+        <v>4.6411769242643865</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>8.1240384046359608</v>
+        <v>10</v>
       </c>
       <c r="B261">
-        <v>10</v>
+        <v>4.7515103204173235</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>8.6602540378443802</v>
+        <v>10</v>
       </c>
       <c r="B262">
-        <v>10</v>
+        <v>4.7366324871929715</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>7.0710678118654702</v>
+        <v>10</v>
       </c>
       <c r="B263">
-        <v>10</v>
+        <v>4.739984634514494</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>8.8317608663278406</v>
+        <v>10</v>
       </c>
       <c r="B264">
-        <v>10</v>
+        <v>4.6216618619103595</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>7.9372539331937704</v>
+        <v>10</v>
       </c>
       <c r="B265">
-        <v>10</v>
+        <v>4.674143929335858</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>4.7080715323532978</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>8.9442719099991592</v>
+        <v>10</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>4.6548542970594342</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>8.0622577482985491</v>
+        <v>10</v>
       </c>
       <c r="B268">
-        <v>10</v>
+        <v>4.7870076858365831</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>8.6023252670426196</v>
+        <v>10</v>
       </c>
       <c r="B269">
-        <v>10</v>
+        <v>4.6646532195829939</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>6.8556546004010404</v>
+        <v>10</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>4.8499521857045504</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>8.7749643873921208</v>
+        <v>10</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>4.6955061726955298</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>8.3666002653407503</v>
+        <v>10</v>
       </c>
       <c r="B272">
-        <v>10</v>
+        <v>4.6701646955785598</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>9.2736184954957004</v>
+        <v>10</v>
       </c>
       <c r="B273">
-        <v>10</v>
+        <v>4.7623181337874643</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>7.3484692283495301</v>
+        <v>10</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>4.7915624703316464</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>7.1414284285428504</v>
+        <v>10</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>4.6690214623774731</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>7.7459666924148296</v>
+        <v>10</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>4.6911722106176255</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>8.3666002653407503</v>
+        <v>10</v>
       </c>
       <c r="B277">
-        <v>10</v>
+        <v>4.7860465662353917</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>9.6953597148326498</v>
+        <v>10</v>
       </c>
       <c r="B278">
-        <v>10</v>
+        <v>4.6830892285405383</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>9.6436507609929496</v>
+        <v>10</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>4.7231428856082474</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>8.9442719099991592</v>
+        <v>10</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>4.8644221208954512</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>7.9372539331937704</v>
+        <v>10</v>
       </c>
       <c r="B281">
-        <v>10</v>
+        <v>4.7192017160197528</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>9.5916630466254293</v>
+        <v>10</v>
       </c>
       <c r="B282">
-        <v>10</v>
+        <v>4.6328308097891089</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>9.0553851381374102</v>
+        <v>10</v>
       </c>
       <c r="B283">
-        <v>10</v>
+        <v>4.7013777613892609</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>8.7177978870813408</v>
+        <v>10</v>
       </c>
       <c r="B284">
-        <v>10</v>
+        <v>4.7255283833504089</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>8.8317608663278406</v>
+        <v>10</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>4.708574818103858</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>7.8740078740118102</v>
+        <v>10</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>4.5271956430045153</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>7.6157731058638998</v>
+        <v>10</v>
       </c>
       <c r="B287">
-        <v>10</v>
+        <v>4.700999647922675</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>7.7459666924148296</v>
+        <v>10</v>
       </c>
       <c r="B288">
-        <v>10</v>
+        <v>4.5587589690982684</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>8.0622577482985491</v>
+        <v>11</v>
       </c>
       <c r="B289">
-        <v>11</v>
+        <v>4.8622694913446169</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>8.1240384046359608</v>
+        <v>11</v>
       </c>
       <c r="B290">
-        <v>11</v>
+        <v>4.8247625996948535</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>8.3066238629180695</v>
+        <v>11</v>
       </c>
       <c r="B291">
-        <v>11</v>
+        <v>4.9103247223465649</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>8.1240384046359608</v>
+        <v>11</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>4.7766647404443505</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>7.2801098892805101</v>
+        <v>11</v>
       </c>
       <c r="B293">
-        <v>11</v>
+        <v>4.7860947034352579</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>8.4852813742385695</v>
+        <v>11</v>
       </c>
       <c r="B294">
-        <v>11</v>
+        <v>4.7405280571499677</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>8.4852813742385695</v>
+        <v>11</v>
       </c>
       <c r="B295">
-        <v>11</v>
+        <v>4.9408579424752448</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>7.8102496759066504</v>
+        <v>11</v>
       </c>
       <c r="B296">
-        <v>11</v>
+        <v>4.8520865062719523</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>8.7749643873921208</v>
+        <v>11</v>
       </c>
       <c r="B297">
-        <v>11</v>
+        <v>4.9160401396922566</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>7.2111025509279703</v>
+        <v>11</v>
       </c>
       <c r="B298">
-        <v>11</v>
+        <v>4.8424564942278794</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>8.6023252670426196</v>
+        <v>11</v>
       </c>
       <c r="B299">
-        <v>11</v>
+        <v>4.7585769296544527</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>9.6953597148326498</v>
+        <v>11</v>
       </c>
       <c r="B300">
-        <v>11</v>
+        <v>4.7697628477485408</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>9.4868329805051292</v>
+        <v>11</v>
       </c>
       <c r="B301">
-        <v>11</v>
+        <v>4.9573847870013719</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>9.4868329805051292</v>
+        <v>11</v>
       </c>
       <c r="B302">
-        <v>11</v>
+        <v>4.8368688549548366</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>7.9372539331937704</v>
+        <v>11</v>
       </c>
       <c r="B303">
-        <v>11</v>
+        <v>4.8529674302727459</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B304">
-        <v>11</v>
+        <v>4.8755901568874425</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>9.0553851381374102</v>
+        <v>11</v>
       </c>
       <c r="B305">
-        <v>11</v>
+        <v>4.8404186188015297</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>9.2736184954957004</v>
+        <v>11</v>
       </c>
       <c r="B306">
-        <v>11</v>
+        <v>4.9074027244714644</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>8.0622577482985491</v>
+        <v>11</v>
       </c>
       <c r="B307">
-        <v>11</v>
+        <v>4.7884350628399757</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>9.3808315196468595</v>
+        <v>11</v>
       </c>
       <c r="B308">
-        <v>11</v>
+        <v>4.852413306952565</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>7.8740078740118102</v>
+        <v>11</v>
       </c>
       <c r="B309">
-        <v>11</v>
+        <v>4.9524319044462111</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>8.6602540378443802</v>
+        <v>11</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>4.9253068386391412</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>8.8881944173155798</v>
+        <v>11</v>
       </c>
       <c r="B311">
-        <v>11</v>
+        <v>4.8521947342799177</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>9.6953597148326498</v>
+        <v>11</v>
       </c>
       <c r="B312">
-        <v>11</v>
+        <v>4.8044360564567938</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>8.6023252670426196</v>
+        <v>11</v>
       </c>
       <c r="B313">
-        <v>11</v>
+        <v>4.9149335353761989</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>7.8102496759066504</v>
+        <v>11</v>
       </c>
       <c r="B314">
-        <v>11</v>
+        <v>4.9600374834454319</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>7.8102496759066504</v>
+        <v>11</v>
       </c>
       <c r="B315">
-        <v>11</v>
+        <v>4.8117479289560876</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>8.3666002653407503</v>
+        <v>11</v>
       </c>
       <c r="B316">
-        <v>11</v>
+        <v>4.8618578831767278</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>7.4161984870956603</v>
+        <v>11</v>
       </c>
       <c r="B317">
-        <v>11</v>
+        <v>5.0403529594459711</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>8.0622577482985491</v>
+        <v>11</v>
       </c>
       <c r="B318">
-        <v>11</v>
+        <v>4.8996518058716898</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>9.1651513899116797</v>
+        <v>11</v>
       </c>
       <c r="B319">
-        <v>11</v>
+        <v>4.8160298020574484</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>9.21954445729288</v>
+        <v>11</v>
       </c>
       <c r="B320">
-        <v>11</v>
+        <v>4.9140942789346527</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>8.6602540378443802</v>
+        <v>12</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>4.9489964201398147</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>8.6602540378443802</v>
+        <v>12</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>4.9859951067686223</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>8.9442719099991592</v>
+        <v>12</v>
       </c>
       <c r="B323">
-        <v>12</v>
+        <v>4.965354351341233</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>8.2462112512353194</v>
+        <v>12</v>
       </c>
       <c r="B324">
-        <v>12</v>
+        <v>4.94720246616449</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>8.7749643873921208</v>
+        <v>12</v>
       </c>
       <c r="B325">
-        <v>12</v>
+        <v>4.9520992153493735</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>8.6023252670426196</v>
+        <v>12</v>
       </c>
       <c r="B326">
-        <v>12</v>
+        <v>4.9778419622422962</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>8.4852813742385695</v>
+        <v>12</v>
       </c>
       <c r="B327">
-        <v>12</v>
+        <v>4.9023352526212491</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>7.5498344352707498</v>
+        <v>12</v>
       </c>
       <c r="B328">
-        <v>12</v>
+        <v>4.9372202710027606</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>8.1853527718724504</v>
+        <v>12</v>
       </c>
       <c r="B329">
-        <v>12</v>
+        <v>4.9076065663642012</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>7.8740078740118102</v>
+        <v>12</v>
       </c>
       <c r="B330">
-        <v>12</v>
+        <v>4.8877589976186133</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>9.1104335791442992</v>
+        <v>12</v>
       </c>
       <c r="B331">
-        <v>12</v>
+        <v>4.9572028025855985</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>9.0553851381374102</v>
+        <v>12</v>
       </c>
       <c r="B332">
-        <v>12</v>
+        <v>4.8712181871337545</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>8.3666002653407503</v>
+        <v>12</v>
       </c>
       <c r="B333">
-        <v>12</v>
+        <v>4.8779666507536446</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>9.0553851381374102</v>
+        <v>12</v>
       </c>
       <c r="B334">
-        <v>12</v>
+        <v>4.9635220977811185</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>7.6811457478685998</v>
+        <v>12</v>
       </c>
       <c r="B335">
-        <v>12</v>
+        <v>4.9433684304473831</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>8.3066238629180695</v>
+        <v>12</v>
       </c>
       <c r="B336">
-        <v>12</v>
+        <v>5.048084776030457</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>8.5440037453175304</v>
+        <v>12</v>
       </c>
       <c r="B337">
-        <v>12</v>
+        <v>5.0326484076477707</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>8.9442719099991592</v>
+        <v>12</v>
       </c>
       <c r="B338">
-        <v>12</v>
+        <v>5.0309516791040387</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>8.5440037453175304</v>
+        <v>12</v>
       </c>
       <c r="B339">
-        <v>12</v>
+        <v>4.9748442003224298</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>8.5440037453175304</v>
+        <v>12</v>
       </c>
       <c r="B340">
-        <v>12</v>
+        <v>5.0042080062460546</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>8.3066238629180695</v>
+        <v>12</v>
       </c>
       <c r="B341">
-        <v>12</v>
+        <v>4.8755611071558826</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>7.7459666924148296</v>
+        <v>12</v>
       </c>
       <c r="B342">
-        <v>12</v>
+        <v>4.9455119703489503</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>8.8881944173155798</v>
+        <v>12</v>
       </c>
       <c r="B343">
-        <v>12</v>
+        <v>5.0348471008098139</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>8.3066238629180695</v>
+        <v>12</v>
       </c>
       <c r="B344">
-        <v>12</v>
+        <v>4.9458367583376717</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>8.6602540378443802</v>
+        <v>12</v>
       </c>
       <c r="B345">
-        <v>12</v>
+        <v>4.9079419698523354</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>8.7749643873921208</v>
+        <v>12</v>
       </c>
       <c r="B346">
-        <v>12</v>
+        <v>4.9331259018107874</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>9.0553851381374102</v>
+        <v>12</v>
       </c>
       <c r="B347">
-        <v>12</v>
+        <v>4.9739122519711723</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>8.0622577482985491</v>
+        <v>12</v>
       </c>
       <c r="B348">
-        <v>12</v>
+        <v>4.9388490899230071</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>8.9442719099991592</v>
+        <v>12</v>
       </c>
       <c r="B349">
-        <v>12</v>
+        <v>4.9831490332347839</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>9.3273790530888103</v>
+        <v>12</v>
       </c>
       <c r="B350">
-        <v>12</v>
+        <v>4.8537141411600002</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>8.4852813742385695</v>
+        <v>12</v>
       </c>
       <c r="B351">
-        <v>12</v>
+        <v>4.9291894557694773</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>8.1240384046359608</v>
+        <v>12</v>
       </c>
       <c r="B352">
-        <v>12</v>
+        <v>4.9399365064005281</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>8.6023252670426196</v>
+        <v>13</v>
       </c>
       <c r="B353">
-        <v>13</v>
+        <v>5.007730516560625</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>8.6602540378443802</v>
+        <v>13</v>
       </c>
       <c r="B354">
-        <v>13</v>
+        <v>4.9686889646065424</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355">
-        <v>7.8740078740118102</v>
+        <v>13</v>
       </c>
       <c r="B355">
-        <v>13</v>
+        <v>4.987999278636714</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>8.7749643873921208</v>
+        <v>13</v>
       </c>
       <c r="B356">
-        <v>13</v>
+        <v>5.0285059189760881</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>8.0622577482985491</v>
+        <v>13</v>
       </c>
       <c r="B357">
-        <v>13</v>
+        <v>5.0353430089639168</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>8.4852813742385695</v>
+        <v>13</v>
       </c>
       <c r="B358">
-        <v>13</v>
+        <v>5.0422782119748852</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>8.2462112512353194</v>
+        <v>13</v>
       </c>
       <c r="B359">
-        <v>13</v>
+        <v>5.0157292345156783</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>8.7749643873921208</v>
+        <v>13</v>
       </c>
       <c r="B360">
-        <v>13</v>
+        <v>4.966653541846922</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361">
-        <v>8.3066238629180695</v>
+        <v>13</v>
       </c>
       <c r="B361">
-        <v>13</v>
+        <v>5.0432767377990926</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>8.3066238629180695</v>
+        <v>13</v>
       </c>
       <c r="B362">
-        <v>13</v>
+        <v>5.0219635524157518</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B363">
-        <v>13</v>
+        <v>4.9656121244391276</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>8.6023252670426196</v>
+        <v>13</v>
       </c>
       <c r="B364">
-        <v>13</v>
+        <v>4.9895725241144024</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>8.5440037453175304</v>
+        <v>13</v>
       </c>
       <c r="B365">
-        <v>13</v>
+        <v>4.9696126956770597</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366">
-        <v>8.4261497731763502</v>
+        <v>13</v>
       </c>
       <c r="B366">
-        <v>13</v>
+        <v>4.9761523498804712</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367">
-        <v>9.1104335791442992</v>
+        <v>13</v>
       </c>
       <c r="B367">
-        <v>13</v>
+        <v>5.0436333940703246</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>9.3273790530888103</v>
+        <v>13</v>
       </c>
       <c r="B368">
-        <v>13</v>
+        <v>4.9617444967314634</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369">
-        <v>8.0622577482985491</v>
+        <v>13</v>
       </c>
       <c r="B369">
-        <v>13</v>
+        <v>4.998315322746917</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>8.7177978870813408</v>
+        <v>13</v>
       </c>
       <c r="B370">
-        <v>13</v>
+        <v>4.9591412662082597</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371">
-        <v>8.7177978870813408</v>
+        <v>13</v>
       </c>
       <c r="B371">
-        <v>13</v>
+        <v>5.0062485767769651</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>8.1853527718724504</v>
+        <v>13</v>
       </c>
       <c r="B372">
-        <v>13</v>
+        <v>4.9231316489124186</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>8.2462112512353194</v>
+        <v>13</v>
       </c>
       <c r="B373">
-        <v>13</v>
+        <v>4.9743740138517047</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>8.4261497731763502</v>
+        <v>13</v>
       </c>
       <c r="B374">
-        <v>13</v>
+        <v>4.9530450084251854</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375">
-        <v>8.6602540378443802</v>
+        <v>13</v>
       </c>
       <c r="B375">
-        <v>13</v>
+        <v>4.992680109467007</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376">
-        <v>8.7177978870813408</v>
+        <v>13</v>
       </c>
       <c r="B376">
-        <v>13</v>
+        <v>4.9303651345550286</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377">
-        <v>8.8317608663278406</v>
+        <v>13</v>
       </c>
       <c r="B377">
-        <v>13</v>
+        <v>4.9603012215812932</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>8.4261497731763502</v>
+        <v>13</v>
       </c>
       <c r="B378">
-        <v>13</v>
+        <v>4.9271945653311278</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379">
-        <v>8.6023252670426196</v>
+        <v>13</v>
       </c>
       <c r="B379">
-        <v>13</v>
+        <v>5.0250170586420717</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380">
-        <v>8.2462112512353194</v>
+        <v>13</v>
       </c>
       <c r="B380">
-        <v>13</v>
+        <v>4.9753007870672654</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>9.0553851381374102</v>
+        <v>13</v>
       </c>
       <c r="B381">
-        <v>13</v>
+        <v>4.9218196981313866</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382">
-        <v>9.1651513899116797</v>
+        <v>13</v>
       </c>
       <c r="B382">
-        <v>13</v>
+        <v>4.9964453370972235</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383">
-        <v>8.3666002653407503</v>
+        <v>13</v>
       </c>
       <c r="B383">
-        <v>13</v>
+        <v>4.9721455713965614</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384">
-        <v>8.1240384046359608</v>
+        <v>13</v>
       </c>
       <c r="B384">
-        <v>13</v>
+        <v>4.9449873609545261</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385">
-        <v>8.5440037453175304</v>
+        <v>14</v>
       </c>
       <c r="B385">
-        <v>14</v>
+        <v>4.9634539131007136</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>8.8317608663278406</v>
+        <v>14</v>
       </c>
       <c r="B386">
-        <v>14</v>
+        <v>4.9466530480353761</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387">
-        <v>8.5440037453175304</v>
+        <v>14</v>
       </c>
       <c r="B387">
-        <v>14</v>
+        <v>4.982349193939454</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388">
-        <v>8.6023252670426196</v>
+        <v>14</v>
       </c>
       <c r="B388">
-        <v>14</v>
+        <v>5.032882771424271</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B389">
-        <v>14</v>
+        <v>4.8943578724791292</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>8.9442719099991592</v>
+        <v>14</v>
       </c>
       <c r="B390">
-        <v>14</v>
+        <v>4.9524322729888706</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391">
-        <v>8.2462112512353194</v>
+        <v>14</v>
       </c>
       <c r="B391">
-        <v>14</v>
+        <v>4.9581531075818948</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392">
-        <v>8.8881944173155798</v>
+        <v>14</v>
       </c>
       <c r="B392">
-        <v>14</v>
+        <v>4.9795360554907786</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>8.4852813742385695</v>
+        <v>14</v>
       </c>
       <c r="B393">
-        <v>14</v>
+        <v>5.0286769501715671</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394">
-        <v>8.7177978870813408</v>
+        <v>14</v>
       </c>
       <c r="B394">
-        <v>14</v>
+        <v>4.9538240821918436</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395">
-        <v>8.6023252670426196</v>
+        <v>14</v>
       </c>
       <c r="B395">
-        <v>14</v>
+        <v>5.0171357889888366</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396">
-        <v>8.7177978870813408</v>
+        <v>14</v>
       </c>
       <c r="B396">
-        <v>14</v>
+        <v>4.9893640251376317</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>8.8317608663278406</v>
+        <v>14</v>
       </c>
       <c r="B397">
-        <v>14</v>
+        <v>5.0573249414642563</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398">
-        <v>8.7749643873921208</v>
+        <v>14</v>
       </c>
       <c r="B398">
-        <v>14</v>
+        <v>5.0534498439712099</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399">
-        <v>8.7749643873921208</v>
+        <v>14</v>
       </c>
       <c r="B399">
-        <v>14</v>
+        <v>4.9746355343753397</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400">
-        <v>9.1651513899116797</v>
+        <v>14</v>
       </c>
       <c r="B400">
-        <v>14</v>
+        <v>5.0139557601993943</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401">
-        <v>8.1853527718724504</v>
+        <v>14</v>
       </c>
       <c r="B401">
-        <v>14</v>
+        <v>5.0594026984977791</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>8.8881944173155798</v>
+        <v>14</v>
       </c>
       <c r="B402">
-        <v>14</v>
+        <v>4.993941074416643</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>8.5440037453175304</v>
+        <v>14</v>
       </c>
       <c r="B403">
-        <v>14</v>
+        <v>5.0036074555021726</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404">
-        <v>8.6023252670426196</v>
+        <v>14</v>
       </c>
       <c r="B404">
-        <v>14</v>
+        <v>5.012119561048924</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>8.6602540378443802</v>
+        <v>14</v>
       </c>
       <c r="B405">
-        <v>14</v>
+        <v>4.9921486511136015</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406">
-        <v>8.0622577482985491</v>
+        <v>14</v>
       </c>
       <c r="B406">
-        <v>14</v>
+        <v>5.0757587937896966</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>7.5498344352707498</v>
+        <v>14</v>
       </c>
       <c r="B407">
-        <v>14</v>
+        <v>4.9617102945360063</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>8.9442719099991592</v>
+        <v>14</v>
       </c>
       <c r="B408">
-        <v>14</v>
+        <v>4.9687976498352802</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>7.8102496759066504</v>
+        <v>14</v>
       </c>
       <c r="B409">
-        <v>14</v>
+        <v>5.0397636523717226</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410">
-        <v>8.7177978870813408</v>
+        <v>14</v>
       </c>
       <c r="B410">
-        <v>14</v>
+        <v>4.9998678160345333</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>8.7177978870813408</v>
+        <v>14</v>
       </c>
       <c r="B411">
-        <v>14</v>
+        <v>5.0499613712369245</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412">
-        <v>9.3808315196468595</v>
+        <v>14</v>
       </c>
       <c r="B412">
-        <v>14</v>
+        <v>5.0174643282068807</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>8.7749643873921208</v>
+        <v>14</v>
       </c>
       <c r="B413">
-        <v>14</v>
+        <v>5.0401516914580444</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414">
-        <v>8.2462112512353194</v>
+        <v>14</v>
       </c>
       <c r="B414">
-        <v>14</v>
+        <v>4.961045565937769</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415">
-        <v>8.6602540378443802</v>
+        <v>14</v>
       </c>
       <c r="B415">
-        <v>14</v>
+        <v>5.0912676359246776</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>8.4261497731763502</v>
+        <v>14</v>
       </c>
       <c r="B416">
-        <v>14</v>
+        <v>4.9772707543809984</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417">
-        <v>8.7177978870813408</v>
+        <v>15</v>
       </c>
       <c r="B417">
-        <v>15</v>
+        <v>5.0208081621846645</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>7.9372539331937704</v>
+        <v>15</v>
       </c>
       <c r="B418">
-        <v>15</v>
+        <v>4.9150962205317725</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419">
-        <v>8.7177978870813408</v>
+        <v>15</v>
       </c>
       <c r="B419">
-        <v>15</v>
+        <v>4.9703782125666915</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420">
-        <v>8.3066238629180695</v>
+        <v>15</v>
       </c>
       <c r="B420">
-        <v>15</v>
+        <v>5.0020745731150003</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421">
-        <v>8.7177978870813408</v>
+        <v>15</v>
       </c>
       <c r="B421">
-        <v>15</v>
+        <v>5.0161637313646281</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422">
-        <v>9.1651513899116797</v>
+        <v>15</v>
       </c>
       <c r="B422">
-        <v>15</v>
+        <v>5.0207773830905049</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423">
-        <v>8.7749643873921208</v>
+        <v>15</v>
       </c>
       <c r="B423">
-        <v>15</v>
+        <v>4.9830385285784766</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424">
-        <v>8.7749643873921208</v>
+        <v>15</v>
       </c>
       <c r="B424">
-        <v>15</v>
+        <v>4.9482166812734043</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>8.3666002653407503</v>
+        <v>15</v>
       </c>
       <c r="B425">
-        <v>15</v>
+        <v>5.059811491472094</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>8.5440037453175304</v>
+        <v>15</v>
       </c>
       <c r="B426">
-        <v>15</v>
+        <v>5.0966680402505391</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>9.1104335791442992</v>
+        <v>15</v>
       </c>
       <c r="B427">
-        <v>15</v>
+        <v>5.0662688112620673</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428">
-        <v>8.8317608663278406</v>
+        <v>15</v>
       </c>
       <c r="B428">
-        <v>15</v>
+        <v>5.0748030900361405</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>8.7177978870813408</v>
+        <v>15</v>
       </c>
       <c r="B429">
-        <v>15</v>
+        <v>5.0137036931266881</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>8.1240384046359608</v>
+        <v>15</v>
       </c>
       <c r="B430">
-        <v>15</v>
+        <v>5.0915557842402563</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>7.9372539331937704</v>
+        <v>15</v>
       </c>
       <c r="B431">
-        <v>15</v>
+        <v>5.0348033690002758</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432">
-        <v>8.7177978870813408</v>
+        <v>15</v>
       </c>
       <c r="B432">
-        <v>15</v>
+        <v>4.9975896740584025</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433">
-        <v>8.6602540378443802</v>
+        <v>15</v>
       </c>
       <c r="B433">
-        <v>15</v>
+        <v>4.9870784839603912</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434">
-        <v>8.8317608663278406</v>
+        <v>15</v>
       </c>
       <c r="B434">
-        <v>15</v>
+        <v>5.0176052880116817</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435">
-        <v>8.0622577482985491</v>
+        <v>15</v>
       </c>
       <c r="B435">
-        <v>15</v>
+        <v>5.0337383327066529</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436">
-        <v>8.3066238629180695</v>
+        <v>15</v>
       </c>
       <c r="B436">
-        <v>15</v>
+        <v>5.0230413779371226</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437">
-        <v>8.5440037453175304</v>
+        <v>15</v>
       </c>
       <c r="B437">
-        <v>15</v>
+        <v>5.0263496117005193</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438">
-        <v>9.1104335791442992</v>
+        <v>15</v>
       </c>
       <c r="B438">
-        <v>15</v>
+        <v>5.0059528270221136</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439">
-        <v>8.5440037453175304</v>
+        <v>15</v>
       </c>
       <c r="B439">
-        <v>15</v>
+        <v>5.0346684527029861</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B440">
-        <v>15</v>
+        <v>5.0470207292841858</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441">
-        <v>8.1853527718724504</v>
+        <v>15</v>
       </c>
       <c r="B441">
-        <v>15</v>
+        <v>5.0548483992335411</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>7.8740078740118102</v>
+        <v>15</v>
       </c>
       <c r="B442">
-        <v>15</v>
+        <v>5.0792298006229988</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443">
-        <v>8.7749643873921208</v>
+        <v>15</v>
       </c>
       <c r="B443">
-        <v>15</v>
+        <v>4.969178937604406</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444">
-        <v>8.3066238629180695</v>
+        <v>15</v>
       </c>
       <c r="B444">
-        <v>15</v>
+        <v>4.9688902762143785</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445">
-        <v>8.0622577482985491</v>
+        <v>15</v>
       </c>
       <c r="B445">
-        <v>15</v>
+        <v>5.0899915119142367</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446">
-        <v>8.6602540378443802</v>
+        <v>15</v>
       </c>
       <c r="B446">
-        <v>15</v>
+        <v>5.0372149361955252</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447">
-        <v>8.7177978870813408</v>
+        <v>15</v>
       </c>
       <c r="B447">
-        <v>15</v>
+        <v>4.9706085195783993</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448">
-        <v>8.8881944173155798</v>
+        <v>15</v>
       </c>
       <c r="B448">
-        <v>15</v>
+        <v>5.0279157892429165</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>8.9442719099991592</v>
+        <v>16</v>
       </c>
       <c r="B449">
-        <v>16</v>
+        <v>4.9331152634638586</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>8.3666002653407503</v>
+        <v>16</v>
       </c>
       <c r="B450">
-        <v>16</v>
+        <v>4.9771653546468251</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>8.4852813742385695</v>
+        <v>16</v>
       </c>
       <c r="B451">
-        <v>16</v>
+        <v>5.014130223696843</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B452">
-        <v>16</v>
+        <v>4.9949674283183203</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>8.1240384046359608</v>
+        <v>16</v>
       </c>
       <c r="B453">
-        <v>16</v>
+        <v>4.9510321168320068</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454">
-        <v>9.4339811320565996</v>
+        <v>16</v>
       </c>
       <c r="B454">
-        <v>16</v>
+        <v>5.0090979523492658</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>9.0553851381374102</v>
+        <v>16</v>
       </c>
       <c r="B455">
-        <v>16</v>
+        <v>4.9906718506181287</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>8.4261497731763502</v>
+        <v>16</v>
       </c>
       <c r="B456">
-        <v>16</v>
+        <v>5.0634009709818013</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>8.7749643873921208</v>
+        <v>16</v>
       </c>
       <c r="B457">
-        <v>16</v>
+        <v>5.0654115952667684</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>8.0622577482985491</v>
+        <v>16</v>
       </c>
       <c r="B458">
-        <v>16</v>
+        <v>5.0116020597729474</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459">
-        <v>8.8881944173155798</v>
+        <v>16</v>
       </c>
       <c r="B459">
-        <v>16</v>
+        <v>5.0545746232954567</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460">
-        <v>8.7177978870813408</v>
+        <v>16</v>
       </c>
       <c r="B460">
-        <v>16</v>
+        <v>5.0293967872106133</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>8.5440037453175304</v>
+        <v>16</v>
       </c>
       <c r="B461">
-        <v>16</v>
+        <v>5.0225843582127521</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462">
-        <v>8.6023252670426196</v>
+        <v>16</v>
       </c>
       <c r="B462">
-        <v>16</v>
+        <v>5.0256998045896495</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>8.7749643873921208</v>
+        <v>16</v>
       </c>
       <c r="B463">
-        <v>16</v>
+        <v>5.0634008445718948</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464">
-        <v>9.1104335791442992</v>
+        <v>16</v>
       </c>
       <c r="B464">
-        <v>16</v>
+        <v>5.0382942034827565</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B465">
-        <v>16</v>
+        <v>5.0046373444531254</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466">
-        <v>8.6023252670426196</v>
+        <v>16</v>
       </c>
       <c r="B466">
-        <v>16</v>
+        <v>5.0624006706359124</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467">
-        <v>9.3273790530888103</v>
+        <v>16</v>
       </c>
       <c r="B467">
-        <v>16</v>
+        <v>5.0233378735995089</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468">
-        <v>9.5393920141694508</v>
+        <v>16</v>
       </c>
       <c r="B468">
-        <v>16</v>
+        <v>5.0386613699315168</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469">
-        <v>8.3066238629180695</v>
+        <v>16</v>
       </c>
       <c r="B469">
-        <v>16</v>
+        <v>5.0851680142718276</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470">
-        <v>8.6602540378443802</v>
+        <v>16</v>
       </c>
       <c r="B470">
-        <v>16</v>
+        <v>5.0401269704232439</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471">
-        <v>9.0553851381374102</v>
+        <v>16</v>
       </c>
       <c r="B471">
-        <v>16</v>
+        <v>4.9844074865322927</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472">
-        <v>8.8881944173155798</v>
+        <v>16</v>
       </c>
       <c r="B472">
-        <v>16</v>
+        <v>5.0091244716813845</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473">
-        <v>8.8881944173155798</v>
+        <v>16</v>
       </c>
       <c r="B473">
-        <v>16</v>
+        <v>4.9802845936214624</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474">
-        <v>8.9442719099991592</v>
+        <v>16</v>
       </c>
       <c r="B474">
-        <v>16</v>
+        <v>5.0303526749924394</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475">
-        <v>8.5440037453175304</v>
+        <v>16</v>
       </c>
       <c r="B475">
-        <v>16</v>
+        <v>5.0129009842233856</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476">
-        <v>8.6602540378443802</v>
+        <v>16</v>
       </c>
       <c r="B476">
-        <v>16</v>
+        <v>5.0730191515833321</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477">
-        <v>8.4261497731763502</v>
+        <v>16</v>
       </c>
       <c r="B477">
-        <v>16</v>
+        <v>4.9632840870630162</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478">
-        <v>9.0553851381374102</v>
+        <v>16</v>
       </c>
       <c r="B478">
-        <v>16</v>
+        <v>4.9918529645415211</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479">
-        <v>8.9442719099991592</v>
+        <v>16</v>
       </c>
       <c r="B479">
-        <v>16</v>
+        <v>5.0205109603535689</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B480">
-        <v>16</v>
+        <v>4.9620421386984033</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
